--- a/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9876831145007822</v>
+        <v>0.9794720714831342</v>
       </c>
       <c r="D2">
-        <v>1.007964975674175</v>
+        <v>1.000801697957583</v>
       </c>
       <c r="E2">
-        <v>0.9933581743827105</v>
+        <v>0.9879831742855435</v>
       </c>
       <c r="F2">
-        <v>0.9902062968642364</v>
+        <v>0.9886511130929785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03935980173148</v>
+        <v>1.034111177119151</v>
       </c>
       <c r="J2">
-        <v>1.010238567818114</v>
+        <v>1.002284598065237</v>
       </c>
       <c r="K2">
-        <v>1.019314449907138</v>
+        <v>1.012249875142457</v>
       </c>
       <c r="L2">
-        <v>1.004910822547853</v>
+        <v>0.9996125006998952</v>
       </c>
       <c r="M2">
-        <v>1.001803781078825</v>
+        <v>1.000270853440994</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9971578869496603</v>
+        <v>0.9880034964380634</v>
       </c>
       <c r="D3">
-        <v>1.015531631486693</v>
+        <v>1.007263859935948</v>
       </c>
       <c r="E3">
-        <v>1.001571534791602</v>
+        <v>0.9951285912753653</v>
       </c>
       <c r="F3">
-        <v>1.000244746545257</v>
+        <v>0.99727134514857</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043005229141942</v>
+        <v>1.036654942646633</v>
       </c>
       <c r="J3">
-        <v>1.017726331837711</v>
+        <v>1.008826627968925</v>
       </c>
       <c r="K3">
-        <v>1.02596956556006</v>
+        <v>1.017804634393347</v>
       </c>
       <c r="L3">
-        <v>1.012184346951561</v>
+        <v>1.005824184503358</v>
       </c>
       <c r="M3">
-        <v>1.010874496751198</v>
+        <v>1.007939259094481</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003045808166608</v>
+        <v>0.9933331840386743</v>
       </c>
       <c r="D4">
-        <v>1.020236339560935</v>
+        <v>1.011303199121993</v>
       </c>
       <c r="E4">
-        <v>1.006676102138119</v>
+        <v>0.9995990366777895</v>
       </c>
       <c r="F4">
-        <v>1.006491058695392</v>
+        <v>1.002661594386632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045253950388955</v>
+        <v>1.038230047806774</v>
       </c>
       <c r="J4">
-        <v>1.022371921459143</v>
+        <v>1.012908978884925</v>
       </c>
       <c r="K4">
-        <v>1.030096513874778</v>
+        <v>1.0212670920908</v>
       </c>
       <c r="L4">
-        <v>1.016694614777476</v>
+        <v>1.00970230338366</v>
       </c>
       <c r="M4">
-        <v>1.016511768585411</v>
+        <v>1.01272800210309</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005467211557345</v>
+        <v>0.9955310946633693</v>
       </c>
       <c r="D5">
-        <v>1.022171609269839</v>
+        <v>1.012969388536555</v>
       </c>
       <c r="E5">
-        <v>1.008775370046516</v>
+        <v>1.00144406186602</v>
       </c>
       <c r="F5">
-        <v>1.009061790983825</v>
+        <v>1.004885661753927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046174665164082</v>
+        <v>1.038876161164899</v>
       </c>
       <c r="J5">
-        <v>1.024280538695845</v>
+        <v>1.014591325632215</v>
       </c>
       <c r="K5">
-        <v>1.031791527074679</v>
+        <v>1.02269302482105</v>
       </c>
       <c r="L5">
-        <v>1.018547052256203</v>
+        <v>1.011300925995379</v>
       </c>
       <c r="M5">
-        <v>1.018830176316942</v>
+        <v>1.014702346839528</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005870731310517</v>
+        <v>0.9958977109333865</v>
       </c>
       <c r="D6">
-        <v>1.022494139348862</v>
+        <v>1.013247332089924</v>
       </c>
       <c r="E6">
-        <v>1.009125205007231</v>
+        <v>1.001751898270272</v>
       </c>
       <c r="F6">
-        <v>1.009490310063105</v>
+        <v>1.00525670950845</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046327858048438</v>
+        <v>1.03898372937359</v>
       </c>
       <c r="J6">
-        <v>1.024598491747418</v>
+        <v>1.014871873256343</v>
       </c>
       <c r="K6">
-        <v>1.032073864560677</v>
+        <v>1.022930755685881</v>
       </c>
       <c r="L6">
-        <v>1.018855611903514</v>
+        <v>1.011567537229271</v>
       </c>
       <c r="M6">
-        <v>1.019216536442172</v>
+        <v>1.015031641818233</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003078369509828</v>
+        <v>0.9933627166690465</v>
       </c>
       <c r="D7">
-        <v>1.020262362074158</v>
+        <v>1.011325585773451</v>
       </c>
       <c r="E7">
-        <v>1.006704331690742</v>
+        <v>0.9996238220861443</v>
       </c>
       <c r="F7">
-        <v>1.0065256204163</v>
+        <v>1.002691473842414</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045266347754417</v>
+        <v>1.038238743178635</v>
       </c>
       <c r="J7">
-        <v>1.022397594747349</v>
+        <v>1.012931588808693</v>
       </c>
       <c r="K7">
-        <v>1.030119316036929</v>
+        <v>1.021286259766881</v>
       </c>
       <c r="L7">
-        <v>1.016719534701293</v>
+        <v>1.0097237863728</v>
       </c>
       <c r="M7">
-        <v>1.01654294461174</v>
+        <v>1.012754532739685</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9909381865952843</v>
+        <v>0.9823966802344795</v>
       </c>
       <c r="D8">
-        <v>1.010563871418994</v>
+        <v>1.00301635626621</v>
       </c>
       <c r="E8">
-        <v>0.9961797033087669</v>
+        <v>0.9904311689570967</v>
       </c>
       <c r="F8">
-        <v>0.9936532963181641</v>
+        <v>0.9916050642866157</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040615688581822</v>
+        <v>1.034986107424489</v>
       </c>
       <c r="J8">
-        <v>1.012812558646838</v>
+        <v>1.00452813913559</v>
       </c>
       <c r="K8">
-        <v>1.021602624705367</v>
+        <v>1.014155623527912</v>
       </c>
       <c r="L8">
-        <v>1.007411672828487</v>
+        <v>1.001742335430605</v>
       </c>
       <c r="M8">
-        <v>1.004919929646291</v>
+        <v>1.002899964050085</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.967461833653079</v>
+        <v>0.9614608317743322</v>
       </c>
       <c r="D9">
-        <v>0.9918386595768467</v>
+        <v>0.9871804274063491</v>
       </c>
       <c r="E9">
-        <v>0.9758379112729142</v>
+        <v>0.9729422955546586</v>
       </c>
       <c r="F9">
-        <v>0.9688286871948615</v>
+        <v>0.9704832130600665</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031487708472488</v>
+        <v>1.028665387082361</v>
       </c>
       <c r="J9">
-        <v>0.9942183411476193</v>
+        <v>0.9884519639527701</v>
       </c>
       <c r="K9">
-        <v>1.005065551366434</v>
+        <v>1.000484974814286</v>
       </c>
       <c r="L9">
-        <v>0.9893355558235676</v>
+        <v>0.9864901695763214</v>
       </c>
       <c r="M9">
-        <v>0.9824485881056169</v>
+        <v>0.9840740490764647</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9500335172398425</v>
+        <v>0.9461724415642379</v>
       </c>
       <c r="D10">
-        <v>0.9779717339599626</v>
+        <v>0.9756489405648023</v>
       </c>
       <c r="E10">
-        <v>0.960754256086082</v>
+        <v>0.9602246137542441</v>
       </c>
       <c r="F10">
-        <v>0.9504462267684303</v>
+        <v>0.9550924423132414</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024624674399462</v>
+        <v>1.023980267206535</v>
       </c>
       <c r="J10">
-        <v>0.9803801012665159</v>
+        <v>0.9766973672618759</v>
       </c>
       <c r="K10">
-        <v>0.9927504413020347</v>
+        <v>0.9904722345184567</v>
       </c>
       <c r="L10">
-        <v>0.975870199751964</v>
+        <v>0.975351183788259</v>
       </c>
       <c r="M10">
-        <v>0.9657717924033919</v>
+        <v>0.9703227851977063</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9419564129422301</v>
+        <v>0.9391684986138368</v>
       </c>
       <c r="D11">
-        <v>0.971557215913468</v>
+        <v>0.9703775856061408</v>
       </c>
       <c r="E11">
-        <v>0.9537709823469817</v>
+        <v>0.9544142385565528</v>
       </c>
       <c r="F11">
-        <v>0.9419380775650912</v>
+        <v>0.9480504813819244</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021425066164558</v>
+        <v>1.021819136629244</v>
       </c>
       <c r="J11">
-        <v>0.9739604197487157</v>
+        <v>0.9713107724331622</v>
       </c>
       <c r="K11">
-        <v>0.9870362223786184</v>
+        <v>0.9858806267431347</v>
       </c>
       <c r="L11">
-        <v>0.9696207430814672</v>
+        <v>0.9702502714530151</v>
       </c>
       <c r="M11">
-        <v>0.9580448166623478</v>
+        <v>0.964023412366907</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9388647399046718</v>
+        <v>0.9365021862194751</v>
       </c>
       <c r="D12">
-        <v>0.9691041512387782</v>
+        <v>0.9683729408294424</v>
       </c>
       <c r="E12">
-        <v>0.9510993964023249</v>
+        <v>0.9522050022638526</v>
       </c>
       <c r="F12">
-        <v>0.9386830829107426</v>
+        <v>0.9453711240367852</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020197678839986</v>
+        <v>1.020994374128634</v>
       </c>
       <c r="J12">
-        <v>0.9715023876664177</v>
+        <v>0.9692601317922653</v>
       </c>
       <c r="K12">
-        <v>0.9848482098164717</v>
+        <v>0.9841322288455502</v>
       </c>
       <c r="L12">
-        <v>0.9672275053278142</v>
+        <v>0.9683089720430312</v>
       </c>
       <c r="M12">
-        <v>0.9550874933019479</v>
+        <v>0.9616255043402546</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9395322712419564</v>
+        <v>0.937077175544917</v>
       </c>
       <c r="D13">
-        <v>0.9696336916105109</v>
+        <v>0.9688051408607743</v>
       </c>
       <c r="E13">
-        <v>0.9516761566728404</v>
+        <v>0.9526812959749111</v>
       </c>
       <c r="F13">
-        <v>0.9393858024208143</v>
+        <v>0.9459488604712515</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02046280459143</v>
+        <v>1.021172323165381</v>
       </c>
       <c r="J13">
-        <v>0.9720331391885725</v>
+        <v>0.9697023496021893</v>
       </c>
       <c r="K13">
-        <v>0.9853206602236085</v>
+        <v>0.9845092852004644</v>
       </c>
       <c r="L13">
-        <v>0.9677442827620907</v>
+        <v>0.9687275834186629</v>
       </c>
       <c r="M13">
-        <v>0.9557260009698534</v>
+        <v>0.9621426018458951</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9417027977243687</v>
+        <v>0.9389494662015074</v>
       </c>
       <c r="D14">
-        <v>0.9713559393859903</v>
+        <v>0.9702128632279146</v>
       </c>
       <c r="E14">
-        <v>0.9535517972213778</v>
+        <v>0.9542326974394335</v>
       </c>
       <c r="F14">
-        <v>0.9416710311331691</v>
+        <v>0.9478303478682097</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021324434376876</v>
+        <v>1.021751424344548</v>
       </c>
       <c r="J14">
-        <v>0.9737587975327374</v>
+        <v>0.9711423156484206</v>
       </c>
       <c r="K14">
-        <v>0.9868567501970015</v>
+        <v>0.9857370063679671</v>
       </c>
       <c r="L14">
-        <v>0.9694244432010124</v>
+        <v>0.9700907847633868</v>
       </c>
       <c r="M14">
-        <v>0.9578022153498303</v>
+        <v>0.963826424345913</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9430276132112159</v>
+        <v>0.9400942361828405</v>
       </c>
       <c r="D15">
-        <v>0.9724074444898676</v>
+        <v>0.9710738697432748</v>
       </c>
       <c r="E15">
-        <v>0.9546968182118428</v>
+        <v>0.9551816311243632</v>
       </c>
       <c r="F15">
-        <v>0.9430660750260365</v>
+        <v>0.948980931224214</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021849999877497</v>
+        <v>1.022105239772764</v>
       </c>
       <c r="J15">
-        <v>0.9748119860528884</v>
+        <v>0.972022752758943</v>
       </c>
       <c r="K15">
-        <v>0.9877942330069438</v>
+        <v>0.9864876204695308</v>
       </c>
       <c r="L15">
-        <v>0.9704498148259223</v>
+        <v>0.9709243637573921</v>
       </c>
       <c r="M15">
-        <v>0.9590695109852789</v>
+        <v>0.9648559878483077</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9505574421320437</v>
+        <v>0.9466286060436013</v>
       </c>
       <c r="D16">
-        <v>0.9783880939060389</v>
+        <v>0.9759925279886073</v>
       </c>
       <c r="E16">
-        <v>0.9612074018928812</v>
+        <v>0.9606033935784476</v>
       </c>
       <c r="F16">
-        <v>0.9509983396354653</v>
+        <v>0.9555512732707718</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02483184395818</v>
+        <v>1.02412073062708</v>
       </c>
       <c r="J16">
-        <v>0.9807964007666446</v>
+        <v>0.9770481784972248</v>
       </c>
       <c r="K16">
-        <v>0.9931209762039287</v>
+        <v>0.9907712109826692</v>
       </c>
       <c r="L16">
-        <v>0.9762754065400026</v>
+        <v>0.9756834668012578</v>
       </c>
       <c r="M16">
-        <v>0.9662730480864665</v>
+        <v>0.9707330791938331</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9551311128368293</v>
+        <v>0.9506200357702932</v>
       </c>
       <c r="D17">
-        <v>0.9820241469155178</v>
+        <v>0.9790002346916755</v>
       </c>
       <c r="E17">
-        <v>0.9651640306426692</v>
+        <v>0.963919520479404</v>
       </c>
       <c r="F17">
-        <v>0.955819322705728</v>
+        <v>0.9595670400508675</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026638264427714</v>
+        <v>1.025348144776274</v>
       </c>
       <c r="J17">
-        <v>0.9844298487259524</v>
+        <v>0.9801176156544817</v>
       </c>
       <c r="K17">
-        <v>0.9963548740721467</v>
+        <v>0.9933867647115819</v>
       </c>
       <c r="L17">
-        <v>0.9798117333176082</v>
+        <v>0.9785911960570557</v>
       </c>
       <c r="M17">
-        <v>0.9706490353587782</v>
+        <v>0.974323198649389</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9577485823540125</v>
+        <v>0.9529116568012876</v>
       </c>
       <c r="D18">
-        <v>0.9841061147596989</v>
+        <v>0.9807281087232183</v>
       </c>
       <c r="E18">
-        <v>0.9674290165818696</v>
+        <v>0.965824883672291</v>
       </c>
       <c r="F18">
-        <v>0.9585793597436068</v>
+        <v>0.9618734556986951</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027670295003323</v>
+        <v>1.026051456748343</v>
       </c>
       <c r="J18">
-        <v>0.9865086324201177</v>
+        <v>0.9818797283594016</v>
       </c>
       <c r="K18">
-        <v>0.9982049555682861</v>
+        <v>0.9948880040026037</v>
       </c>
       <c r="L18">
-        <v>0.9818346939339997</v>
+        <v>0.9802608050465276</v>
       </c>
       <c r="M18">
-        <v>0.97315353882556</v>
+        <v>0.9763844395951701</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9586328621923297</v>
+        <v>0.9536870420294264</v>
       </c>
       <c r="D19">
-        <v>0.984809655850956</v>
+        <v>0.9813129133541015</v>
       </c>
       <c r="E19">
-        <v>0.9681943150797361</v>
+        <v>0.9664698147047053</v>
       </c>
       <c r="F19">
-        <v>0.959511979553942</v>
+        <v>0.9626539836802244</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028018649445797</v>
+        <v>1.026289186576141</v>
       </c>
       <c r="J19">
-        <v>0.9872108163166164</v>
+        <v>0.9824759183709079</v>
       </c>
       <c r="K19">
-        <v>0.9988298664445318</v>
+        <v>0.9953958763764018</v>
       </c>
       <c r="L19">
-        <v>0.9825179770851667</v>
+        <v>0.9808257522634644</v>
       </c>
       <c r="M19">
-        <v>0.9739996812251066</v>
+        <v>0.9770818752550274</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9546456785756547</v>
+        <v>0.9501956168739745</v>
       </c>
       <c r="D20">
-        <v>0.9816381122900145</v>
+        <v>0.9786803065828731</v>
       </c>
       <c r="E20">
-        <v>0.9647440180560551</v>
+        <v>0.9635667545233699</v>
       </c>
       <c r="F20">
-        <v>0.955307531926992</v>
+        <v>0.9591399471973895</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026446719943358</v>
+        <v>1.025217774204714</v>
       </c>
       <c r="J20">
-        <v>0.9840442684251115</v>
+        <v>0.9797912498806026</v>
       </c>
       <c r="K20">
-        <v>0.9960117048625643</v>
+        <v>0.9931086906181616</v>
       </c>
       <c r="L20">
-        <v>0.9794364861446002</v>
+        <v>0.9782819896341449</v>
       </c>
       <c r="M20">
-        <v>0.9701845648726936</v>
+        <v>0.9739414485292297</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9410662645188371</v>
+        <v>0.9383999731542402</v>
       </c>
       <c r="D21">
-        <v>0.970850804942001</v>
+        <v>0.9697996543217735</v>
       </c>
       <c r="E21">
-        <v>0.9530017016507341</v>
+        <v>0.9537773044119361</v>
       </c>
       <c r="F21">
-        <v>0.9410008144823191</v>
+        <v>0.9472781157236425</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021071822644143</v>
+        <v>1.021581520303152</v>
       </c>
       <c r="J21">
-        <v>0.9732527467106825</v>
+        <v>0.9707197033883653</v>
       </c>
       <c r="K21">
-        <v>0.9864062924120071</v>
+        <v>0.9853766957221173</v>
       </c>
       <c r="L21">
-        <v>0.9689317448706686</v>
+        <v>0.9696906855771218</v>
       </c>
       <c r="M21">
-        <v>0.957193330772925</v>
+        <v>0.963332238121122</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9319911968421142</v>
+        <v>0.9306045765459443</v>
       </c>
       <c r="D22">
-        <v>0.9636550321117613</v>
+        <v>0.9639432066709985</v>
       </c>
       <c r="E22">
-        <v>0.9451628258998447</v>
+        <v>0.9473237881913515</v>
       </c>
       <c r="F22">
-        <v>0.9314495185323006</v>
+        <v>0.939447418345792</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017464163696741</v>
+        <v>1.019166510489584</v>
       </c>
       <c r="J22">
-        <v>0.9660363999162852</v>
+        <v>0.9647245187280974</v>
       </c>
       <c r="K22">
-        <v>0.9799825897647247</v>
+        <v>0.9802644712972277</v>
       </c>
       <c r="L22">
-        <v>0.9619049357441202</v>
+        <v>0.9640163388217391</v>
       </c>
       <c r="M22">
-        <v>0.9485133247448473</v>
+        <v>0.956322076109806</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9368576313643937</v>
+        <v>0.9347756856919445</v>
       </c>
       <c r="D23">
-        <v>0.9675123101511109</v>
+        <v>0.9670755273703534</v>
       </c>
       <c r="E23">
-        <v>0.9493654488874549</v>
+        <v>0.9507752746030228</v>
       </c>
       <c r="F23">
-        <v>0.9365704157794259</v>
+        <v>0.9436365922100833</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019400131821023</v>
+        <v>1.020459767214597</v>
       </c>
       <c r="J23">
-        <v>0.969906447386285</v>
+        <v>0.9679323123396157</v>
       </c>
       <c r="K23">
-        <v>0.9834275702802034</v>
+        <v>0.9830000133109059</v>
       </c>
       <c r="L23">
-        <v>0.9656735311529182</v>
+        <v>0.9670521237505819</v>
       </c>
       <c r="M23">
-        <v>0.9531677052816691</v>
+        <v>0.9600728713742114</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9548651799236548</v>
+        <v>0.950387505820839</v>
       </c>
       <c r="D24">
-        <v>0.9818126642242441</v>
+        <v>0.9788249497698165</v>
       </c>
       <c r="E24">
-        <v>0.9649339353606611</v>
+        <v>0.9637262431175627</v>
       </c>
       <c r="F24">
-        <v>0.9555389478214915</v>
+        <v>0.9593330425480313</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026533337131491</v>
+        <v>1.025276721891186</v>
       </c>
       <c r="J24">
-        <v>0.9842186201838768</v>
+        <v>0.9799388074051409</v>
       </c>
       <c r="K24">
-        <v>0.9961668795154209</v>
+        <v>0.9932344153149348</v>
       </c>
       <c r="L24">
-        <v>0.9796061662730621</v>
+        <v>0.9784217879951064</v>
       </c>
       <c r="M24">
-        <v>0.9703945864066734</v>
+        <v>0.9741140459281846</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9738127672049836</v>
+        <v>0.9670875860663353</v>
       </c>
       <c r="D25">
-        <v>0.9968996530832216</v>
+        <v>0.9914320664185188</v>
       </c>
       <c r="E25">
-        <v>0.9813387430119798</v>
+        <v>0.9776345009919192</v>
       </c>
       <c r="F25">
-        <v>0.9755365557963387</v>
+        <v>0.9761545854436581</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033971994755672</v>
+        <v>1.03037635715783</v>
       </c>
       <c r="J25">
-        <v>0.9992547589538349</v>
+        <v>0.9927757215244817</v>
       </c>
       <c r="K25">
-        <v>1.009546289360529</v>
+        <v>1.004164860763136</v>
       </c>
       <c r="L25">
-        <v>0.9942338276579396</v>
+        <v>0.9905902271979461</v>
       </c>
       <c r="M25">
-        <v>0.988526890040383</v>
+        <v>0.9891347046819763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9794720714831342</v>
+        <v>1.011817489373926</v>
       </c>
       <c r="D2">
-        <v>1.000801697957583</v>
+        <v>1.032078585082279</v>
       </c>
       <c r="E2">
-        <v>0.9879831742855435</v>
+        <v>1.026826708818055</v>
       </c>
       <c r="F2">
-        <v>0.9886511130929785</v>
+        <v>1.038084423467973</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034111177119151</v>
+        <v>1.054242112447355</v>
       </c>
       <c r="J2">
-        <v>1.002284598065237</v>
+        <v>1.033650396389668</v>
       </c>
       <c r="K2">
-        <v>1.012249875142457</v>
+        <v>1.043108396758819</v>
       </c>
       <c r="L2">
-        <v>0.9996125006998952</v>
+        <v>1.03792454021589</v>
       </c>
       <c r="M2">
-        <v>1.000270853440994</v>
+        <v>1.049037503862966</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9880034964380634</v>
+        <v>1.016271659368335</v>
       </c>
       <c r="D3">
-        <v>1.007263859935948</v>
+        <v>1.035388553153455</v>
       </c>
       <c r="E3">
-        <v>0.9951285912753653</v>
+        <v>1.030451969234584</v>
       </c>
       <c r="F3">
-        <v>0.99727134514857</v>
+        <v>1.041860633772853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036654942646633</v>
+        <v>1.055517063820419</v>
       </c>
       <c r="J3">
-        <v>1.008826627968925</v>
+        <v>1.036328361381447</v>
       </c>
       <c r="K3">
-        <v>1.017804634393347</v>
+        <v>1.045587801066667</v>
       </c>
       <c r="L3">
-        <v>1.005824184503358</v>
+        <v>1.040709491490303</v>
       </c>
       <c r="M3">
-        <v>1.007939259094481</v>
+        <v>1.051984515248962</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9933331840386743</v>
+        <v>1.019096672802832</v>
       </c>
       <c r="D4">
-        <v>1.011303199121993</v>
+        <v>1.03748875204861</v>
       </c>
       <c r="E4">
-        <v>0.9995990366777895</v>
+        <v>1.032756570854306</v>
       </c>
       <c r="F4">
-        <v>1.002661594386632</v>
+        <v>1.044259435919462</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038230047806774</v>
+        <v>1.056312155453926</v>
       </c>
       <c r="J4">
-        <v>1.012908978884925</v>
+        <v>1.038024184775566</v>
       </c>
       <c r="K4">
-        <v>1.0212670920908</v>
+        <v>1.047154833101388</v>
       </c>
       <c r="L4">
-        <v>1.00970230338366</v>
+        <v>1.042475095719774</v>
       </c>
       <c r="M4">
-        <v>1.01272800210309</v>
+        <v>1.053851495885337</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9955310946633693</v>
+        <v>1.020271098632372</v>
       </c>
       <c r="D5">
-        <v>1.012969388536555</v>
+        <v>1.038362011859132</v>
       </c>
       <c r="E5">
-        <v>1.00144406186602</v>
+        <v>1.033715880679742</v>
       </c>
       <c r="F5">
-        <v>1.004885661753927</v>
+        <v>1.045257532528606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038876161164899</v>
+        <v>1.056639396947459</v>
       </c>
       <c r="J5">
-        <v>1.014591325632215</v>
+        <v>1.038728508702363</v>
       </c>
       <c r="K5">
-        <v>1.02269302482105</v>
+        <v>1.047804917854818</v>
       </c>
       <c r="L5">
-        <v>1.011300925995379</v>
+        <v>1.043208887506253</v>
       </c>
       <c r="M5">
-        <v>1.014702346839528</v>
+        <v>1.0546270861279</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9958977109333865</v>
+        <v>1.020467528449015</v>
       </c>
       <c r="D6">
-        <v>1.013247332089924</v>
+        <v>1.038508077474523</v>
       </c>
       <c r="E6">
-        <v>1.001751898270272</v>
+        <v>1.033876402202465</v>
       </c>
       <c r="F6">
-        <v>1.00525670950845</v>
+        <v>1.045424519191556</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03898372937359</v>
+        <v>1.056693934808992</v>
       </c>
       <c r="J6">
-        <v>1.014871873256343</v>
+        <v>1.038846270723668</v>
       </c>
       <c r="K6">
-        <v>1.022930755685881</v>
+        <v>1.047913566693022</v>
       </c>
       <c r="L6">
-        <v>1.011567537229271</v>
+        <v>1.043331605039259</v>
       </c>
       <c r="M6">
-        <v>1.015031641818233</v>
+        <v>1.054756774123465</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9933627166690465</v>
+        <v>1.019112416840309</v>
       </c>
       <c r="D7">
-        <v>1.011325585773451</v>
+        <v>1.037500458187926</v>
       </c>
       <c r="E7">
-        <v>0.9996238220861443</v>
+        <v>1.032769426296114</v>
       </c>
       <c r="F7">
-        <v>1.002691473842414</v>
+        <v>1.044272812813557</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038238743178635</v>
+        <v>1.05631655545406</v>
       </c>
       <c r="J7">
-        <v>1.012931588808693</v>
+        <v>1.038033629446823</v>
       </c>
       <c r="K7">
-        <v>1.021286259766881</v>
+        <v>1.047163553427866</v>
       </c>
       <c r="L7">
-        <v>1.0097237863728</v>
+        <v>1.042484933623904</v>
       </c>
       <c r="M7">
-        <v>1.012754532739685</v>
+        <v>1.05386189550621</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9823966802344795</v>
+        <v>1.013334915577765</v>
       </c>
       <c r="D8">
-        <v>1.00301635626621</v>
+        <v>1.033205990087067</v>
       </c>
       <c r="E8">
-        <v>0.9904311689570967</v>
+        <v>1.028060604315299</v>
       </c>
       <c r="F8">
-        <v>0.9916050642866157</v>
+        <v>1.039370062788842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034986107424489</v>
+        <v>1.054679263157378</v>
       </c>
       <c r="J8">
-        <v>1.00452813913559</v>
+        <v>1.034563247051393</v>
       </c>
       <c r="K8">
-        <v>1.014155623527912</v>
+        <v>1.043954193858043</v>
       </c>
       <c r="L8">
-        <v>1.001742335430605</v>
+        <v>1.038873432401019</v>
       </c>
       <c r="M8">
-        <v>1.002899964050085</v>
+        <v>1.050041896164642</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9614608317743322</v>
+        <v>1.002694438702872</v>
       </c>
       <c r="D9">
-        <v>0.9871804274063491</v>
+        <v>1.025306526967202</v>
       </c>
       <c r="E9">
-        <v>0.9729422955546586</v>
+        <v>1.019432725938854</v>
       </c>
       <c r="F9">
-        <v>0.9704832130600665</v>
+        <v>1.030373062058254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028665387082361</v>
+        <v>1.051558579156909</v>
       </c>
       <c r="J9">
-        <v>0.9884519639527701</v>
+        <v>1.028152406868487</v>
       </c>
       <c r="K9">
-        <v>1.000484974814286</v>
+        <v>1.038001945491006</v>
       </c>
       <c r="L9">
-        <v>0.9864901695763214</v>
+        <v>1.032218196631997</v>
       </c>
       <c r="M9">
-        <v>0.9840740490764647</v>
+        <v>1.042991854714427</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9461724415642379</v>
+        <v>0.9952586488297533</v>
       </c>
       <c r="D10">
-        <v>0.9756489405648023</v>
+        <v>1.019796706492037</v>
       </c>
       <c r="E10">
-        <v>0.9602246137542441</v>
+        <v>1.013436635271581</v>
       </c>
       <c r="F10">
-        <v>0.9550924423132414</v>
+        <v>1.024111299761676</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023980267206535</v>
+        <v>1.049309820406454</v>
       </c>
       <c r="J10">
-        <v>0.9766973672618759</v>
+        <v>1.023661653466451</v>
       </c>
       <c r="K10">
-        <v>0.9904722345184567</v>
+        <v>1.033817493877228</v>
       </c>
       <c r="L10">
-        <v>0.975351183788259</v>
+        <v>1.027567452311023</v>
       </c>
       <c r="M10">
-        <v>0.9703227851977063</v>
+        <v>1.038058448771933</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9391684986138368</v>
+        <v>0.9919497436053329</v>
       </c>
       <c r="D11">
-        <v>0.9703775856061408</v>
+        <v>1.017348263991261</v>
       </c>
       <c r="E11">
-        <v>0.9544142385565528</v>
+        <v>1.010777039957348</v>
       </c>
       <c r="F11">
-        <v>0.9480504813819244</v>
+        <v>1.021331737423663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021819136629244</v>
+        <v>1.048293764381883</v>
       </c>
       <c r="J11">
-        <v>0.9713107724331622</v>
+        <v>1.02166130030574</v>
       </c>
       <c r="K11">
-        <v>0.9858806267431347</v>
+        <v>1.031950269080952</v>
       </c>
       <c r="L11">
-        <v>0.9702502714530151</v>
+        <v>1.025498539231689</v>
       </c>
       <c r="M11">
-        <v>0.964023412366907</v>
+        <v>1.035862277118384</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9365021862194751</v>
+        <v>0.9907065409529189</v>
       </c>
       <c r="D12">
-        <v>0.9683729408294424</v>
+        <v>1.016428944468817</v>
       </c>
       <c r="E12">
-        <v>0.9522050022638526</v>
+        <v>1.009779159793166</v>
       </c>
       <c r="F12">
-        <v>0.9453711240367852</v>
+        <v>1.020288529778684</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020994374128634</v>
+        <v>1.047909775986307</v>
       </c>
       <c r="J12">
-        <v>0.9692601317922653</v>
+        <v>1.020909491743229</v>
       </c>
       <c r="K12">
-        <v>0.9841322288455502</v>
+        <v>1.031248018203198</v>
       </c>
       <c r="L12">
-        <v>0.9683089720430312</v>
+        <v>1.024721374468286</v>
       </c>
       <c r="M12">
-        <v>0.9616255043402546</v>
+        <v>1.035037089419194</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.937077175544917</v>
+        <v>0.9909738637818287</v>
       </c>
       <c r="D13">
-        <v>0.9688051408607743</v>
+        <v>1.016626595246186</v>
       </c>
       <c r="E13">
-        <v>0.9526812959749111</v>
+        <v>1.009993668603389</v>
       </c>
       <c r="F13">
-        <v>0.9459488604712515</v>
+        <v>1.020512796600236</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021172323165381</v>
+        <v>1.047992444261728</v>
       </c>
       <c r="J13">
-        <v>0.9697023496021893</v>
+        <v>1.021071161655358</v>
       </c>
       <c r="K13">
-        <v>0.9845092852004644</v>
+        <v>1.03139905238371</v>
       </c>
       <c r="L13">
-        <v>0.9687275834186629</v>
+        <v>1.024888478352687</v>
       </c>
       <c r="M13">
-        <v>0.9621426018458951</v>
+        <v>1.035214528859722</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9389494662015074</v>
+        <v>0.9918472727068681</v>
       </c>
       <c r="D14">
-        <v>0.9702128632279146</v>
+        <v>1.017272476553455</v>
       </c>
       <c r="E14">
-        <v>0.9542326974394335</v>
+        <v>1.010694761544798</v>
       </c>
       <c r="F14">
-        <v>0.9478303478682097</v>
+        <v>1.021245728016379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021751424344548</v>
+        <v>1.048262159337789</v>
       </c>
       <c r="J14">
-        <v>0.9711423156484206</v>
+        <v>1.021599337267558</v>
       </c>
       <c r="K14">
-        <v>0.9857370063679671</v>
+        <v>1.031892400095714</v>
       </c>
       <c r="L14">
-        <v>0.9700907847633868</v>
+        <v>1.025434477983368</v>
       </c>
       <c r="M14">
-        <v>0.963826424345913</v>
+        <v>1.035794261784856</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9400942361828405</v>
+        <v>0.9923835139164078</v>
       </c>
       <c r="D15">
-        <v>0.9710738697432748</v>
+        <v>1.017669105108366</v>
       </c>
       <c r="E15">
-        <v>0.9551816311243632</v>
+        <v>1.011125389471516</v>
       </c>
       <c r="F15">
-        <v>0.948980931224214</v>
+        <v>1.021695870325443</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022105239772764</v>
+        <v>1.048427460944459</v>
       </c>
       <c r="J15">
-        <v>0.972022752758943</v>
+        <v>1.021923586711367</v>
       </c>
       <c r="K15">
-        <v>0.9864876204695308</v>
+        <v>1.0321952062472</v>
       </c>
       <c r="L15">
-        <v>0.9709243637573921</v>
+        <v>1.02576972404482</v>
       </c>
       <c r="M15">
-        <v>0.9648559878483077</v>
+        <v>1.036150191504343</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9466286060436013</v>
+        <v>0.9954763100781214</v>
       </c>
       <c r="D16">
-        <v>0.9759925279886073</v>
+        <v>1.019957844102513</v>
       </c>
       <c r="E16">
-        <v>0.9606033935784476</v>
+        <v>1.013611770536765</v>
       </c>
       <c r="F16">
-        <v>0.9555512732707718</v>
+        <v>1.024294290820626</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02412073062708</v>
+        <v>1.049376342390787</v>
       </c>
       <c r="J16">
-        <v>0.9770481784972248</v>
+        <v>1.023793200482957</v>
       </c>
       <c r="K16">
-        <v>0.9907712109826692</v>
+        <v>1.033940218860602</v>
       </c>
       <c r="L16">
-        <v>0.9756834668012578</v>
+        <v>1.027703564716839</v>
       </c>
       <c r="M16">
-        <v>0.9707330791938331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.03820290252535</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,75 +1036,81 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9506200357702932</v>
+        <v>0.9973919671641547</v>
       </c>
       <c r="D17">
-        <v>0.9790002346916755</v>
+        <v>1.021376429518183</v>
       </c>
       <c r="E17">
-        <v>0.963919520479404</v>
+        <v>1.01515414514695</v>
       </c>
       <c r="F17">
-        <v>0.9595670400508675</v>
+        <v>1.025905607348345</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025348144776274</v>
+        <v>1.04996006693869</v>
       </c>
       <c r="J17">
-        <v>0.9801176156544817</v>
+        <v>1.024950738473112</v>
       </c>
       <c r="K17">
-        <v>0.9933867647115819</v>
+        <v>1.035019753718315</v>
       </c>
       <c r="L17">
-        <v>0.9785911960570557</v>
+        <v>1.0289015840191</v>
       </c>
       <c r="M17">
-        <v>0.974323198649389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.039474168211282</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9529116568012876</v>
+        <v>0.9985007870378403</v>
       </c>
       <c r="D18">
-        <v>0.9807281087232183</v>
+        <v>1.022197852805343</v>
       </c>
       <c r="E18">
-        <v>0.965824883672291</v>
+        <v>1.016047718021909</v>
       </c>
       <c r="F18">
-        <v>0.9618734556986951</v>
+        <v>1.026838919083206</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026051456748343</v>
+        <v>1.050296475150835</v>
       </c>
       <c r="J18">
-        <v>0.9818797283594016</v>
+        <v>1.02562055272438</v>
       </c>
       <c r="K18">
-        <v>0.9948880040026037</v>
+        <v>1.035644115722405</v>
       </c>
       <c r="L18">
-        <v>0.9802608050465276</v>
+        <v>1.029595079359849</v>
       </c>
       <c r="M18">
-        <v>0.9763844395951701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.040209919202032</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9536870420294264</v>
+        <v>0.9988774370875326</v>
       </c>
       <c r="D19">
-        <v>0.9813129133541015</v>
+        <v>1.022476929982612</v>
       </c>
       <c r="E19">
-        <v>0.9664698147047053</v>
+        <v>1.016351388255801</v>
       </c>
       <c r="F19">
-        <v>0.9626539836802244</v>
+        <v>1.027156059634289</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026289186576141</v>
+        <v>1.050410498037122</v>
       </c>
       <c r="J19">
-        <v>0.9824759183709079</v>
+        <v>1.025848044993943</v>
       </c>
       <c r="K19">
-        <v>0.9953958763764018</v>
+        <v>1.035856116727871</v>
       </c>
       <c r="L19">
-        <v>0.9808257522634644</v>
+        <v>1.029830657915251</v>
       </c>
       <c r="M19">
-        <v>0.9770818752550274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.040459827172535</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9501956168739745</v>
+        <v>0.9971873248426868</v>
       </c>
       <c r="D20">
-        <v>0.9786803065828731</v>
+        <v>1.021224853873051</v>
       </c>
       <c r="E20">
-        <v>0.9635667545233699</v>
+        <v>1.014989294014623</v>
       </c>
       <c r="F20">
-        <v>0.9591399471973895</v>
+        <v>1.025733408588726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025217774204714</v>
+        <v>1.049897861184307</v>
       </c>
       <c r="J20">
-        <v>0.9797912498806026</v>
+        <v>1.024827102625305</v>
       </c>
       <c r="K20">
-        <v>0.9931086906181616</v>
+        <v>1.034904481913865</v>
       </c>
       <c r="L20">
-        <v>0.9782819896341449</v>
+        <v>1.028773597755133</v>
       </c>
       <c r="M20">
-        <v>0.9739414485292297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.039338371841949</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9383999731542402</v>
+        <v>0.9915904716860436</v>
       </c>
       <c r="D21">
-        <v>0.9697996543217735</v>
+        <v>1.017082556489573</v>
       </c>
       <c r="E21">
-        <v>0.9537773044119361</v>
+        <v>1.01048858692658</v>
       </c>
       <c r="F21">
-        <v>0.9472781157236425</v>
+        <v>1.021030199132313</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021581520303152</v>
+        <v>1.048182918454897</v>
       </c>
       <c r="J21">
-        <v>0.9707197033883653</v>
+        <v>1.02144404866981</v>
       </c>
       <c r="K21">
-        <v>0.9853766957221173</v>
+        <v>1.031747364190422</v>
       </c>
       <c r="L21">
-        <v>0.9696906855771218</v>
+        <v>1.025273937599463</v>
       </c>
       <c r="M21">
-        <v>0.963332238121122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.035623808773824</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9306045765459443</v>
+        <v>0.9879893677301994</v>
       </c>
       <c r="D22">
-        <v>0.9639432066709985</v>
+        <v>1.014420846412903</v>
       </c>
       <c r="E22">
-        <v>0.9473237881913515</v>
+        <v>1.007600761953818</v>
       </c>
       <c r="F22">
-        <v>0.939447418345792</v>
+        <v>1.018010604820814</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019166510489584</v>
+        <v>1.047066476133474</v>
       </c>
       <c r="J22">
-        <v>0.9647245187280974</v>
+        <v>1.019265923325788</v>
       </c>
       <c r="K22">
-        <v>0.9802644712972277</v>
+        <v>1.029711936292811</v>
       </c>
       <c r="L22">
-        <v>0.9640163388217391</v>
+        <v>1.023023135211334</v>
       </c>
       <c r="M22">
-        <v>0.956322076109806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.033233517014568</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9347756856919445</v>
+        <v>0.9899064251146363</v>
       </c>
       <c r="D23">
-        <v>0.9670755273703534</v>
+        <v>1.015837455690734</v>
       </c>
       <c r="E23">
-        <v>0.9507752746030228</v>
+        <v>1.009137325832038</v>
       </c>
       <c r="F23">
-        <v>0.9436365922100833</v>
+        <v>1.019617452789942</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020459767214597</v>
+        <v>1.047662020853893</v>
       </c>
       <c r="J23">
-        <v>0.9679323123396157</v>
+        <v>1.020425570149971</v>
       </c>
       <c r="K23">
-        <v>0.9830000133109059</v>
+        <v>1.030795863913792</v>
       </c>
       <c r="L23">
-        <v>0.9670521237505819</v>
+        <v>1.024221248176592</v>
       </c>
       <c r="M23">
-        <v>0.9600728713742114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.034505998217959</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.950387505820839</v>
+        <v>0.9972798202692597</v>
       </c>
       <c r="D24">
-        <v>0.9788249497698165</v>
+        <v>1.021293362934222</v>
       </c>
       <c r="E24">
-        <v>0.9637262431175627</v>
+        <v>1.015063801862754</v>
       </c>
       <c r="F24">
-        <v>0.9593330425480313</v>
+        <v>1.025811237975639</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025276721891186</v>
+        <v>1.049925981843708</v>
       </c>
       <c r="J24">
-        <v>0.9799388074051409</v>
+        <v>1.024882984872079</v>
       </c>
       <c r="K24">
-        <v>0.9932344153149348</v>
+        <v>1.034956584670781</v>
       </c>
       <c r="L24">
-        <v>0.9784217879951064</v>
+        <v>1.028831445554628</v>
       </c>
       <c r="M24">
-        <v>0.9741140459281846</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.039399750135656</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9670875860663353</v>
+        <v>1.005503013478931</v>
       </c>
       <c r="D25">
-        <v>0.9914320664185188</v>
+        <v>1.027390088401498</v>
       </c>
       <c r="E25">
-        <v>0.9776345009919192</v>
+        <v>1.021704576566999</v>
       </c>
       <c r="F25">
-        <v>0.9761545854436581</v>
+        <v>1.032743702352169</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03037635715783</v>
+        <v>1.052394249071616</v>
       </c>
       <c r="J25">
-        <v>0.9927757215244817</v>
+        <v>1.029846588000663</v>
       </c>
       <c r="K25">
-        <v>1.004164860763136</v>
+        <v>1.039577583551861</v>
       </c>
       <c r="L25">
-        <v>0.9905902271979461</v>
+        <v>1.033975047650627</v>
       </c>
       <c r="M25">
-        <v>0.9891347046819763</v>
+        <v>1.044854122618539</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011817489373926</v>
+        <v>1.040841954743474</v>
       </c>
       <c r="D2">
-        <v>1.032078585082279</v>
+        <v>1.047248882650956</v>
       </c>
       <c r="E2">
-        <v>1.026826708818055</v>
+        <v>1.048779703637209</v>
       </c>
       <c r="F2">
-        <v>1.038084423467973</v>
+        <v>1.058631582101417</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054242112447355</v>
+        <v>1.040657333725012</v>
       </c>
       <c r="J2">
-        <v>1.033650396389668</v>
+        <v>1.045926379842881</v>
       </c>
       <c r="K2">
-        <v>1.043108396758819</v>
+        <v>1.050012049386149</v>
       </c>
       <c r="L2">
-        <v>1.03792454021589</v>
+        <v>1.051538596173364</v>
       </c>
       <c r="M2">
-        <v>1.049037503862966</v>
+        <v>1.061363287630381</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016271659368335</v>
+        <v>1.041789827902005</v>
       </c>
       <c r="D3">
-        <v>1.035388553153455</v>
+        <v>1.047963768525999</v>
       </c>
       <c r="E3">
-        <v>1.030451969234584</v>
+        <v>1.049596995860929</v>
       </c>
       <c r="F3">
-        <v>1.041860633772853</v>
+        <v>1.059473834301504</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055517063820419</v>
+        <v>1.040844806873969</v>
       </c>
       <c r="J3">
-        <v>1.036328361381447</v>
+        <v>1.046520044721692</v>
       </c>
       <c r="K3">
-        <v>1.045587801066667</v>
+        <v>1.050538992793409</v>
       </c>
       <c r="L3">
-        <v>1.040709491490303</v>
+        <v>1.052167988974688</v>
       </c>
       <c r="M3">
-        <v>1.051984515248962</v>
+        <v>1.062019539487099</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019096672802832</v>
+        <v>1.042403625761956</v>
       </c>
       <c r="D4">
-        <v>1.03748875204861</v>
+        <v>1.048426429402843</v>
       </c>
       <c r="E4">
-        <v>1.032756570854306</v>
+        <v>1.050126540764274</v>
       </c>
       <c r="F4">
-        <v>1.044259435919462</v>
+        <v>1.060019336896837</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056312155453926</v>
+        <v>1.04096452154048</v>
       </c>
       <c r="J4">
-        <v>1.038024184775566</v>
+        <v>1.046904020301926</v>
       </c>
       <c r="K4">
-        <v>1.047154833101388</v>
+        <v>1.050879369848691</v>
       </c>
       <c r="L4">
-        <v>1.042475095719774</v>
+        <v>1.052575298091036</v>
       </c>
       <c r="M4">
-        <v>1.053851495885337</v>
+        <v>1.062444039145141</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020271098632372</v>
+        <v>1.042661775499608</v>
       </c>
       <c r="D5">
-        <v>1.038362011859132</v>
+        <v>1.048620950089612</v>
       </c>
       <c r="E5">
-        <v>1.033715880679742</v>
+        <v>1.050349328026033</v>
       </c>
       <c r="F5">
-        <v>1.045257532528606</v>
+        <v>1.060248786453722</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056639396947459</v>
+        <v>1.041014467468611</v>
       </c>
       <c r="J5">
-        <v>1.038728508702363</v>
+        <v>1.047065402951566</v>
       </c>
       <c r="K5">
-        <v>1.047804917854818</v>
+        <v>1.051022321784937</v>
       </c>
       <c r="L5">
-        <v>1.043208887506253</v>
+        <v>1.052746541571357</v>
       </c>
       <c r="M5">
-        <v>1.0546270861279</v>
+        <v>1.062622464135097</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020467528449015</v>
+        <v>1.042705126342132</v>
       </c>
       <c r="D6">
-        <v>1.038508077474523</v>
+        <v>1.048653611982235</v>
       </c>
       <c r="E6">
-        <v>1.033876402202465</v>
+        <v>1.050386744711946</v>
       </c>
       <c r="F6">
-        <v>1.045424519191556</v>
+        <v>1.060287319049401</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056693934808992</v>
+        <v>1.041022831180278</v>
       </c>
       <c r="J6">
-        <v>1.038846270723668</v>
+        <v>1.047092497390433</v>
       </c>
       <c r="K6">
-        <v>1.047913566693022</v>
+        <v>1.051046315648409</v>
       </c>
       <c r="L6">
-        <v>1.043331605039259</v>
+        <v>1.052775294698919</v>
       </c>
       <c r="M6">
-        <v>1.054756774123465</v>
+        <v>1.062652420403944</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019112416840309</v>
+        <v>1.042407074744052</v>
       </c>
       <c r="D7">
-        <v>1.037500458187926</v>
+        <v>1.048429028528804</v>
       </c>
       <c r="E7">
-        <v>1.032769426296114</v>
+        <v>1.050129517005923</v>
       </c>
       <c r="F7">
-        <v>1.044272812813557</v>
+        <v>1.060022402342519</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05631655545406</v>
+        <v>1.040965190422823</v>
       </c>
       <c r="J7">
-        <v>1.038033629446823</v>
+        <v>1.046906176866052</v>
       </c>
       <c r="K7">
-        <v>1.047163553427866</v>
+        <v>1.050881280541202</v>
       </c>
       <c r="L7">
-        <v>1.042484933623904</v>
+        <v>1.052577586214181</v>
       </c>
       <c r="M7">
-        <v>1.05386189550621</v>
+        <v>1.062446423406504</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013334915577765</v>
+        <v>1.041162196872238</v>
       </c>
       <c r="D8">
-        <v>1.033205990087067</v>
+        <v>1.04749046378489</v>
       </c>
       <c r="E8">
-        <v>1.028060604315299</v>
+        <v>1.049055765066057</v>
       </c>
       <c r="F8">
-        <v>1.039370062788842</v>
+        <v>1.05891611879341</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054679263157378</v>
+        <v>1.040721020543168</v>
       </c>
       <c r="J8">
-        <v>1.034563247051393</v>
+        <v>1.046127045224979</v>
       </c>
       <c r="K8">
-        <v>1.043954193858043</v>
+        <v>1.050190253940473</v>
       </c>
       <c r="L8">
-        <v>1.038873432401019</v>
+        <v>1.051751291357825</v>
       </c>
       <c r="M8">
-        <v>1.050041896164642</v>
+        <v>1.06158509902602</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002694438702872</v>
+        <v>1.038972140361893</v>
       </c>
       <c r="D9">
-        <v>1.025306526967202</v>
+        <v>1.045837288638574</v>
       </c>
       <c r="E9">
-        <v>1.019432725938854</v>
+        <v>1.047169121826968</v>
       </c>
       <c r="F9">
-        <v>1.030373062058254</v>
+        <v>1.056970676060698</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051558579156909</v>
+        <v>1.040278594578323</v>
       </c>
       <c r="J9">
-        <v>1.028152406868487</v>
+        <v>1.0447528987659</v>
       </c>
       <c r="K9">
-        <v>1.038001945491006</v>
+        <v>1.048968106353969</v>
       </c>
       <c r="L9">
-        <v>1.032218196631997</v>
+        <v>1.050295689857731</v>
       </c>
       <c r="M9">
-        <v>1.042991854714427</v>
+        <v>1.060066328824306</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9952586488297533</v>
+        <v>1.037514574166633</v>
       </c>
       <c r="D10">
-        <v>1.019796706492037</v>
+        <v>1.044735731347859</v>
       </c>
       <c r="E10">
-        <v>1.013436635271581</v>
+        <v>1.04591511009123</v>
       </c>
       <c r="F10">
-        <v>1.024111299761676</v>
+        <v>1.055676478678547</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049309820406454</v>
+        <v>1.039975507217849</v>
       </c>
       <c r="J10">
-        <v>1.023661653466451</v>
+        <v>1.043836048199366</v>
       </c>
       <c r="K10">
-        <v>1.033817493877228</v>
+        <v>1.048150405811089</v>
       </c>
       <c r="L10">
-        <v>1.027567452311023</v>
+        <v>1.049325653209698</v>
       </c>
       <c r="M10">
-        <v>1.038058448771933</v>
+        <v>1.059053217797844</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9919497436053329</v>
+        <v>1.036884031659321</v>
       </c>
       <c r="D11">
-        <v>1.017348263991261</v>
+        <v>1.044258896679017</v>
       </c>
       <c r="E11">
-        <v>1.010777039957348</v>
+        <v>1.045373017398821</v>
       </c>
       <c r="F11">
-        <v>1.021331737423663</v>
+        <v>1.055116752421303</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048293764381883</v>
+        <v>1.039842346216686</v>
       </c>
       <c r="J11">
-        <v>1.02166130030574</v>
+        <v>1.043438876721925</v>
       </c>
       <c r="K11">
-        <v>1.031950269080952</v>
+        <v>1.047795650753815</v>
       </c>
       <c r="L11">
-        <v>1.025498539231689</v>
+        <v>1.048905717903948</v>
       </c>
       <c r="M11">
-        <v>1.035862277118384</v>
+        <v>1.058614404270923</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9907065409529189</v>
+        <v>1.036649910269896</v>
       </c>
       <c r="D12">
-        <v>1.016428944468817</v>
+        <v>1.044081802637776</v>
       </c>
       <c r="E12">
-        <v>1.009779159793166</v>
+        <v>1.045171797138243</v>
       </c>
       <c r="F12">
-        <v>1.020288529778684</v>
+        <v>1.054908947362324</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047909775986307</v>
+        <v>1.039792596201591</v>
       </c>
       <c r="J12">
-        <v>1.020909491743229</v>
+        <v>1.043291325199107</v>
       </c>
       <c r="K12">
-        <v>1.031248018203198</v>
+        <v>1.047663777107248</v>
       </c>
       <c r="L12">
-        <v>1.024721374468286</v>
+        <v>1.048749750972154</v>
       </c>
       <c r="M12">
-        <v>1.035037089419194</v>
+        <v>1.058451391189444</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9909738637818287</v>
+        <v>1.036700126005447</v>
       </c>
       <c r="D13">
-        <v>1.016626595246186</v>
+        <v>1.0441197888192</v>
       </c>
       <c r="E13">
-        <v>1.009993668603389</v>
+        <v>1.045214953339195</v>
       </c>
       <c r="F13">
-        <v>1.020512796600236</v>
+        <v>1.054953517603145</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047992444261728</v>
+        <v>1.039803280774266</v>
       </c>
       <c r="J13">
-        <v>1.021071161655358</v>
+        <v>1.043322976586635</v>
       </c>
       <c r="K13">
-        <v>1.03139905238371</v>
+        <v>1.047692069041521</v>
       </c>
       <c r="L13">
-        <v>1.024888478352687</v>
+        <v>1.048783205677498</v>
       </c>
       <c r="M13">
-        <v>1.035214528859722</v>
+        <v>1.058486358851555</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9918472727068681</v>
+        <v>1.036864677266718</v>
       </c>
       <c r="D14">
-        <v>1.017272476553455</v>
+        <v>1.044244257540436</v>
       </c>
       <c r="E14">
-        <v>1.010694761544798</v>
+        <v>1.045356381663882</v>
       </c>
       <c r="F14">
-        <v>1.021245728016379</v>
+        <v>1.055099573096479</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048262159337789</v>
+        <v>1.039838239737861</v>
       </c>
       <c r="J14">
-        <v>1.021599337267558</v>
+        <v>1.04342668055768</v>
       </c>
       <c r="K14">
-        <v>1.031892400095714</v>
+        <v>1.047784752107626</v>
       </c>
       <c r="L14">
-        <v>1.025434477983368</v>
+        <v>1.048892825300891</v>
       </c>
       <c r="M14">
-        <v>1.035794261784856</v>
+        <v>1.05860092992253</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9923835139164078</v>
+        <v>1.036966074709574</v>
       </c>
       <c r="D15">
-        <v>1.017669105108366</v>
+        <v>1.044320949998159</v>
       </c>
       <c r="E15">
-        <v>1.011125389471516</v>
+        <v>1.04544353853423</v>
       </c>
       <c r="F15">
-        <v>1.021695870325443</v>
+        <v>1.055189576295141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048427460944459</v>
+        <v>1.039859740955118</v>
       </c>
       <c r="J15">
-        <v>1.021923586711367</v>
+        <v>1.043490572801649</v>
       </c>
       <c r="K15">
-        <v>1.0321952062472</v>
+        <v>1.047841843745111</v>
       </c>
       <c r="L15">
-        <v>1.02576972404482</v>
+        <v>1.048960367689239</v>
       </c>
       <c r="M15">
-        <v>1.036150191504343</v>
+        <v>1.058671518567821</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9954763100781214</v>
+        <v>1.037556433784522</v>
       </c>
       <c r="D16">
-        <v>1.019957844102513</v>
+        <v>1.044767380518971</v>
       </c>
       <c r="E16">
-        <v>1.013611770536765</v>
+        <v>1.045951106142974</v>
       </c>
       <c r="F16">
-        <v>1.024294290820626</v>
+        <v>1.055713640111979</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049376342390787</v>
+        <v>1.039984304236276</v>
       </c>
       <c r="J16">
-        <v>1.023793200482957</v>
+        <v>1.043862403689211</v>
       </c>
       <c r="K16">
-        <v>1.033940218860602</v>
+        <v>1.048173935394194</v>
       </c>
       <c r="L16">
-        <v>1.027703564716839</v>
+        <v>1.049353525075809</v>
       </c>
       <c r="M16">
-        <v>1.03820290252535</v>
+        <v>1.059082337783128</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9973919671641547</v>
+        <v>1.037926910004966</v>
       </c>
       <c r="D17">
-        <v>1.021376429518183</v>
+        <v>1.045047454992076</v>
       </c>
       <c r="E17">
-        <v>1.01515414514695</v>
+        <v>1.046269732613675</v>
       </c>
       <c r="F17">
-        <v>1.025905607348345</v>
+        <v>1.056042551920834</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04996006693869</v>
+        <v>1.040061925362006</v>
       </c>
       <c r="J17">
-        <v>1.024950738473112</v>
+        <v>1.044095598847426</v>
       </c>
       <c r="K17">
-        <v>1.035019753718315</v>
+        <v>1.048382065036125</v>
       </c>
       <c r="L17">
-        <v>1.0289015840191</v>
+        <v>1.049600169104448</v>
       </c>
       <c r="M17">
-        <v>1.039474168211282</v>
+        <v>1.059339999997136</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9985007870378403</v>
+        <v>1.038143059688851</v>
       </c>
       <c r="D18">
-        <v>1.022197852805343</v>
+        <v>1.045210831766843</v>
       </c>
       <c r="E18">
-        <v>1.016047718021909</v>
+        <v>1.04645566903777</v>
       </c>
       <c r="F18">
-        <v>1.026838919083206</v>
+        <v>1.056234465130057</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050296475150835</v>
+        <v>1.040107014942994</v>
       </c>
       <c r="J18">
-        <v>1.02562055272438</v>
+        <v>1.044231601248224</v>
       </c>
       <c r="K18">
-        <v>1.035644115722405</v>
+        <v>1.048503397334681</v>
       </c>
       <c r="L18">
-        <v>1.029595079359849</v>
+        <v>1.049744041670714</v>
       </c>
       <c r="M18">
-        <v>1.040209919202032</v>
+        <v>1.059490277399844</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9988774370875326</v>
+        <v>1.038216770811075</v>
       </c>
       <c r="D19">
-        <v>1.022476929982612</v>
+        <v>1.045266541365894</v>
       </c>
       <c r="E19">
-        <v>1.016351388255801</v>
+        <v>1.046519083263847</v>
       </c>
       <c r="F19">
-        <v>1.027156059634289</v>
+        <v>1.056299913470039</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050410498037122</v>
+        <v>1.040122357838288</v>
       </c>
       <c r="J19">
-        <v>1.025848044993943</v>
+        <v>1.044277971740097</v>
       </c>
       <c r="K19">
-        <v>1.035856116727871</v>
+        <v>1.048544757249542</v>
       </c>
       <c r="L19">
-        <v>1.029830657915251</v>
+        <v>1.049793100035745</v>
       </c>
       <c r="M19">
-        <v>1.040459827172535</v>
+        <v>1.059541515932724</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9971873248426868</v>
+        <v>1.037887155491493</v>
       </c>
       <c r="D20">
-        <v>1.021224853873051</v>
+        <v>1.045017404185098</v>
       </c>
       <c r="E20">
-        <v>1.014989294014623</v>
+        <v>1.046235537999811</v>
       </c>
       <c r="F20">
-        <v>1.025733408588726</v>
+        <v>1.056007256111972</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049897861184307</v>
+        <v>1.040053616532782</v>
       </c>
       <c r="J20">
-        <v>1.024827102625305</v>
+        <v>1.044070580901474</v>
       </c>
       <c r="K20">
-        <v>1.034904481913865</v>
+        <v>1.048359741534415</v>
       </c>
       <c r="L20">
-        <v>1.028773597755133</v>
+        <v>1.049573705566322</v>
       </c>
       <c r="M20">
-        <v>1.039338371841949</v>
+        <v>1.059312356574717</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9915904716860436</v>
+        <v>1.036816218524035</v>
       </c>
       <c r="D21">
-        <v>1.017082556489573</v>
+        <v>1.044207603941107</v>
       </c>
       <c r="E21">
-        <v>1.01048858692658</v>
+        <v>1.045314730750653</v>
       </c>
       <c r="F21">
-        <v>1.021030199132313</v>
+        <v>1.055056560560341</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048182918454897</v>
+        <v>1.039827953141543</v>
       </c>
       <c r="J21">
-        <v>1.02144404866981</v>
+        <v>1.043396142986706</v>
       </c>
       <c r="K21">
-        <v>1.031747364190422</v>
+        <v>1.047757462056392</v>
       </c>
       <c r="L21">
-        <v>1.025273937599463</v>
+        <v>1.048860544610152</v>
       </c>
       <c r="M21">
-        <v>1.035623808773824</v>
+        <v>1.05856719208973</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9879893677301994</v>
+        <v>1.036143400175186</v>
       </c>
       <c r="D22">
-        <v>1.014420846412903</v>
+        <v>1.04369858759383</v>
       </c>
       <c r="E22">
-        <v>1.007600761953818</v>
+        <v>1.044736576650717</v>
       </c>
       <c r="F22">
-        <v>1.018010604820814</v>
+        <v>1.054459412577566</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047066476133474</v>
+        <v>1.039684403152176</v>
       </c>
       <c r="J22">
-        <v>1.019265923325788</v>
+        <v>1.04297195673072</v>
       </c>
       <c r="K22">
-        <v>1.029711936292811</v>
+        <v>1.047378196490866</v>
       </c>
       <c r="L22">
-        <v>1.023023135211334</v>
+        <v>1.048412243647202</v>
       </c>
       <c r="M22">
-        <v>1.033233517014568</v>
+        <v>1.058098572946278</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9899064251146363</v>
+        <v>1.03650002406301</v>
       </c>
       <c r="D23">
-        <v>1.015837455690734</v>
+        <v>1.043968413280168</v>
       </c>
       <c r="E23">
-        <v>1.009137325832038</v>
+        <v>1.045042991323697</v>
       </c>
       <c r="F23">
-        <v>1.019617452789942</v>
+        <v>1.054775915378547</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047662020853893</v>
+        <v>1.03976065944711</v>
       </c>
       <c r="J23">
-        <v>1.020425570149971</v>
+        <v>1.04319683884347</v>
       </c>
       <c r="K23">
-        <v>1.030795863913792</v>
+        <v>1.047579307751325</v>
       </c>
       <c r="L23">
-        <v>1.024221248176592</v>
+        <v>1.04864988739346</v>
       </c>
       <c r="M23">
-        <v>1.034505998217959</v>
+        <v>1.058347006308753</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9972798202692597</v>
+        <v>1.03790511866833</v>
       </c>
       <c r="D24">
-        <v>1.021293362934222</v>
+        <v>1.045030982807923</v>
       </c>
       <c r="E24">
-        <v>1.015063801862754</v>
+        <v>1.046250988805282</v>
       </c>
       <c r="F24">
-        <v>1.025811237975639</v>
+        <v>1.056023204569523</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049925981843708</v>
+        <v>1.040057371508308</v>
       </c>
       <c r="J24">
-        <v>1.024882984872079</v>
+        <v>1.0440818854851</v>
       </c>
       <c r="K24">
-        <v>1.034956584670781</v>
+        <v>1.048369828768587</v>
       </c>
       <c r="L24">
-        <v>1.028831445554628</v>
+        <v>1.049585663271538</v>
       </c>
       <c r="M24">
-        <v>1.039399750135656</v>
+        <v>1.05932484748649</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005503013478931</v>
+        <v>1.039537891707632</v>
       </c>
       <c r="D25">
-        <v>1.027390088401498</v>
+        <v>1.046264582120025</v>
       </c>
       <c r="E25">
-        <v>1.021704576566999</v>
+        <v>1.047656209838127</v>
       </c>
       <c r="F25">
-        <v>1.032743702352169</v>
+        <v>1.057473139335992</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052394249071616</v>
+        <v>1.040394409659634</v>
       </c>
       <c r="J25">
-        <v>1.029846588000663</v>
+        <v>1.045108286045295</v>
       </c>
       <c r="K25">
-        <v>1.039577583551861</v>
+        <v>1.049284583325093</v>
       </c>
       <c r="L25">
-        <v>1.033975047650627</v>
+        <v>1.050671938740635</v>
       </c>
       <c r="M25">
-        <v>1.044854122618539</v>
+        <v>1.060459078438381</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.040841954743474</v>
+        <v>1.011817489373927</v>
       </c>
       <c r="D2">
-        <v>1.047248882650956</v>
+        <v>1.03207858508228</v>
       </c>
       <c r="E2">
-        <v>1.048779703637209</v>
+        <v>1.026826708818055</v>
       </c>
       <c r="F2">
-        <v>1.058631582101417</v>
+        <v>1.038084423467973</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040657333725012</v>
+        <v>1.054242112447355</v>
       </c>
       <c r="J2">
-        <v>1.045926379842881</v>
+        <v>1.033650396389669</v>
       </c>
       <c r="K2">
-        <v>1.050012049386149</v>
+        <v>1.043108396758821</v>
       </c>
       <c r="L2">
-        <v>1.051538596173364</v>
+        <v>1.03792454021589</v>
       </c>
       <c r="M2">
-        <v>1.061363287630381</v>
+        <v>1.049037503862967</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041789827902005</v>
+        <v>1.016271659368335</v>
       </c>
       <c r="D3">
-        <v>1.047963768525999</v>
+        <v>1.035388553153455</v>
       </c>
       <c r="E3">
-        <v>1.049596995860929</v>
+        <v>1.030451969234584</v>
       </c>
       <c r="F3">
-        <v>1.059473834301504</v>
+        <v>1.041860633772853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040844806873969</v>
+        <v>1.055517063820419</v>
       </c>
       <c r="J3">
-        <v>1.046520044721692</v>
+        <v>1.036328361381447</v>
       </c>
       <c r="K3">
-        <v>1.050538992793409</v>
+        <v>1.045587801066667</v>
       </c>
       <c r="L3">
-        <v>1.052167988974688</v>
+        <v>1.040709491490303</v>
       </c>
       <c r="M3">
-        <v>1.062019539487099</v>
+        <v>1.051984515248962</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042403625761956</v>
+        <v>1.019096672802832</v>
       </c>
       <c r="D4">
-        <v>1.048426429402843</v>
+        <v>1.037488752048611</v>
       </c>
       <c r="E4">
-        <v>1.050126540764274</v>
+        <v>1.032756570854307</v>
       </c>
       <c r="F4">
-        <v>1.060019336896837</v>
+        <v>1.044259435919463</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04096452154048</v>
+        <v>1.056312155453926</v>
       </c>
       <c r="J4">
-        <v>1.046904020301926</v>
+        <v>1.038024184775567</v>
       </c>
       <c r="K4">
-        <v>1.050879369848691</v>
+        <v>1.047154833101389</v>
       </c>
       <c r="L4">
-        <v>1.052575298091036</v>
+        <v>1.042475095719775</v>
       </c>
       <c r="M4">
-        <v>1.062444039145141</v>
+        <v>1.053851495885338</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042661775499608</v>
+        <v>1.020271098632373</v>
       </c>
       <c r="D5">
-        <v>1.048620950089612</v>
+        <v>1.038362011859133</v>
       </c>
       <c r="E5">
-        <v>1.050349328026033</v>
+        <v>1.033715880679743</v>
       </c>
       <c r="F5">
-        <v>1.060248786453722</v>
+        <v>1.045257532528607</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041014467468611</v>
+        <v>1.056639396947459</v>
       </c>
       <c r="J5">
-        <v>1.047065402951566</v>
+        <v>1.038728508702363</v>
       </c>
       <c r="K5">
-        <v>1.051022321784937</v>
+        <v>1.047804917854819</v>
       </c>
       <c r="L5">
-        <v>1.052746541571357</v>
+        <v>1.043208887506254</v>
       </c>
       <c r="M5">
-        <v>1.062622464135097</v>
+        <v>1.054627086127901</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042705126342132</v>
+        <v>1.020467528449015</v>
       </c>
       <c r="D6">
-        <v>1.048653611982235</v>
+        <v>1.038508077474523</v>
       </c>
       <c r="E6">
-        <v>1.050386744711946</v>
+        <v>1.033876402202465</v>
       </c>
       <c r="F6">
-        <v>1.060287319049401</v>
+        <v>1.045424519191556</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041022831180278</v>
+        <v>1.056693934808992</v>
       </c>
       <c r="J6">
-        <v>1.047092497390433</v>
+        <v>1.038846270723669</v>
       </c>
       <c r="K6">
-        <v>1.051046315648409</v>
+        <v>1.047913566693022</v>
       </c>
       <c r="L6">
-        <v>1.052775294698919</v>
+        <v>1.04333160503926</v>
       </c>
       <c r="M6">
-        <v>1.062652420403944</v>
+        <v>1.054756774123465</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042407074744052</v>
+        <v>1.01911241684031</v>
       </c>
       <c r="D7">
-        <v>1.048429028528804</v>
+        <v>1.037500458187926</v>
       </c>
       <c r="E7">
-        <v>1.050129517005923</v>
+        <v>1.032769426296115</v>
       </c>
       <c r="F7">
-        <v>1.060022402342519</v>
+        <v>1.044272812813558</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040965190422823</v>
+        <v>1.05631655545406</v>
       </c>
       <c r="J7">
-        <v>1.046906176866052</v>
+        <v>1.038033629446824</v>
       </c>
       <c r="K7">
-        <v>1.050881280541202</v>
+        <v>1.047163553427866</v>
       </c>
       <c r="L7">
-        <v>1.052577586214181</v>
+        <v>1.042484933623905</v>
       </c>
       <c r="M7">
-        <v>1.062446423406504</v>
+        <v>1.053861895506212</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041162196872238</v>
+        <v>1.013334915577765</v>
       </c>
       <c r="D8">
-        <v>1.04749046378489</v>
+        <v>1.033205990087067</v>
       </c>
       <c r="E8">
-        <v>1.049055765066057</v>
+        <v>1.028060604315299</v>
       </c>
       <c r="F8">
-        <v>1.05891611879341</v>
+        <v>1.039370062788842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040721020543168</v>
+        <v>1.054679263157378</v>
       </c>
       <c r="J8">
-        <v>1.046127045224979</v>
+        <v>1.034563247051393</v>
       </c>
       <c r="K8">
-        <v>1.050190253940473</v>
+        <v>1.043954193858043</v>
       </c>
       <c r="L8">
-        <v>1.051751291357825</v>
+        <v>1.038873432401019</v>
       </c>
       <c r="M8">
-        <v>1.06158509902602</v>
+        <v>1.050041896164643</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038972140361893</v>
+        <v>1.002694438702873</v>
       </c>
       <c r="D9">
-        <v>1.045837288638574</v>
+        <v>1.025306526967202</v>
       </c>
       <c r="E9">
-        <v>1.047169121826968</v>
+        <v>1.019432725938854</v>
       </c>
       <c r="F9">
-        <v>1.056970676060698</v>
+        <v>1.030373062058254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040278594578323</v>
+        <v>1.05155857915691</v>
       </c>
       <c r="J9">
-        <v>1.0447528987659</v>
+        <v>1.028152406868487</v>
       </c>
       <c r="K9">
-        <v>1.048968106353969</v>
+        <v>1.038001945491006</v>
       </c>
       <c r="L9">
-        <v>1.050295689857731</v>
+        <v>1.032218196631997</v>
       </c>
       <c r="M9">
-        <v>1.060066328824306</v>
+        <v>1.042991854714427</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037514574166633</v>
+        <v>0.9952586488297543</v>
       </c>
       <c r="D10">
-        <v>1.044735731347859</v>
+        <v>1.019796706492038</v>
       </c>
       <c r="E10">
-        <v>1.04591511009123</v>
+        <v>1.013436635271582</v>
       </c>
       <c r="F10">
-        <v>1.055676478678547</v>
+        <v>1.024111299761678</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039975507217849</v>
+        <v>1.049309820406454</v>
       </c>
       <c r="J10">
-        <v>1.043836048199366</v>
+        <v>1.023661653466452</v>
       </c>
       <c r="K10">
-        <v>1.048150405811089</v>
+        <v>1.033817493877229</v>
       </c>
       <c r="L10">
-        <v>1.049325653209698</v>
+        <v>1.027567452311024</v>
       </c>
       <c r="M10">
-        <v>1.059053217797844</v>
+        <v>1.038058448771934</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036884031659321</v>
+        <v>0.9919497436053327</v>
       </c>
       <c r="D11">
-        <v>1.044258896679017</v>
+        <v>1.01734826399126</v>
       </c>
       <c r="E11">
-        <v>1.045373017398821</v>
+        <v>1.010777039957347</v>
       </c>
       <c r="F11">
-        <v>1.055116752421303</v>
+        <v>1.021331737423663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039842346216686</v>
+        <v>1.048293764381882</v>
       </c>
       <c r="J11">
-        <v>1.043438876721925</v>
+        <v>1.021661300305739</v>
       </c>
       <c r="K11">
-        <v>1.047795650753815</v>
+        <v>1.031950269080952</v>
       </c>
       <c r="L11">
-        <v>1.048905717903948</v>
+        <v>1.025498539231688</v>
       </c>
       <c r="M11">
-        <v>1.058614404270923</v>
+        <v>1.035862277118383</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036649910269896</v>
+        <v>0.9907065409529185</v>
       </c>
       <c r="D12">
-        <v>1.044081802637776</v>
+        <v>1.016428944468817</v>
       </c>
       <c r="E12">
-        <v>1.045171797138243</v>
+        <v>1.009779159793166</v>
       </c>
       <c r="F12">
-        <v>1.054908947362324</v>
+        <v>1.020288529778684</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039792596201591</v>
+        <v>1.047909775986307</v>
       </c>
       <c r="J12">
-        <v>1.043291325199107</v>
+        <v>1.020909491743229</v>
       </c>
       <c r="K12">
-        <v>1.047663777107248</v>
+        <v>1.031248018203198</v>
       </c>
       <c r="L12">
-        <v>1.048749750972154</v>
+        <v>1.024721374468285</v>
       </c>
       <c r="M12">
-        <v>1.058451391189444</v>
+        <v>1.035037089419194</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036700126005447</v>
+        <v>0.9909738637818279</v>
       </c>
       <c r="D13">
-        <v>1.0441197888192</v>
+        <v>1.016626595246186</v>
       </c>
       <c r="E13">
-        <v>1.045214953339195</v>
+        <v>1.009993668603388</v>
       </c>
       <c r="F13">
-        <v>1.054953517603145</v>
+        <v>1.020512796600235</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039803280774266</v>
+        <v>1.047992444261727</v>
       </c>
       <c r="J13">
-        <v>1.043322976586635</v>
+        <v>1.021071161655358</v>
       </c>
       <c r="K13">
-        <v>1.047692069041521</v>
+        <v>1.03139905238371</v>
       </c>
       <c r="L13">
-        <v>1.048783205677498</v>
+        <v>1.024888478352686</v>
       </c>
       <c r="M13">
-        <v>1.058486358851555</v>
+        <v>1.035214528859722</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036864677266718</v>
+        <v>0.9918472727068683</v>
       </c>
       <c r="D14">
-        <v>1.044244257540436</v>
+        <v>1.017272476553455</v>
       </c>
       <c r="E14">
-        <v>1.045356381663882</v>
+        <v>1.010694761544798</v>
       </c>
       <c r="F14">
-        <v>1.055099573096479</v>
+        <v>1.021245728016379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039838239737861</v>
+        <v>1.048262159337789</v>
       </c>
       <c r="J14">
-        <v>1.04342668055768</v>
+        <v>1.021599337267558</v>
       </c>
       <c r="K14">
-        <v>1.047784752107626</v>
+        <v>1.031892400095713</v>
       </c>
       <c r="L14">
-        <v>1.048892825300891</v>
+        <v>1.025434477983369</v>
       </c>
       <c r="M14">
-        <v>1.05860092992253</v>
+        <v>1.035794261784856</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036966074709574</v>
+        <v>0.9923835139164071</v>
       </c>
       <c r="D15">
-        <v>1.044320949998159</v>
+        <v>1.017669105108365</v>
       </c>
       <c r="E15">
-        <v>1.04544353853423</v>
+        <v>1.011125389471515</v>
       </c>
       <c r="F15">
-        <v>1.055189576295141</v>
+        <v>1.021695870325443</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039859740955118</v>
+        <v>1.048427460944459</v>
       </c>
       <c r="J15">
-        <v>1.043490572801649</v>
+        <v>1.021923586711366</v>
       </c>
       <c r="K15">
-        <v>1.047841843745111</v>
+        <v>1.032195206247199</v>
       </c>
       <c r="L15">
-        <v>1.048960367689239</v>
+        <v>1.02576972404482</v>
       </c>
       <c r="M15">
-        <v>1.058671518567821</v>
+        <v>1.036150191504342</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.037556433784522</v>
+        <v>0.9954763100781215</v>
       </c>
       <c r="D16">
-        <v>1.044767380518971</v>
+        <v>1.019957844102514</v>
       </c>
       <c r="E16">
-        <v>1.045951106142974</v>
+        <v>1.013611770536765</v>
       </c>
       <c r="F16">
-        <v>1.055713640111979</v>
+        <v>1.024294290820626</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039984304236276</v>
+        <v>1.049376342390788</v>
       </c>
       <c r="J16">
-        <v>1.043862403689211</v>
+        <v>1.023793200482957</v>
       </c>
       <c r="K16">
-        <v>1.048173935394194</v>
+        <v>1.033940218860603</v>
       </c>
       <c r="L16">
-        <v>1.049353525075809</v>
+        <v>1.027703564716839</v>
       </c>
       <c r="M16">
-        <v>1.059082337783128</v>
+        <v>1.038202902525351</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037926910004966</v>
+        <v>0.9973919671641548</v>
       </c>
       <c r="D17">
-        <v>1.045047454992076</v>
+        <v>1.021376429518184</v>
       </c>
       <c r="E17">
-        <v>1.046269732613675</v>
+        <v>1.01515414514695</v>
       </c>
       <c r="F17">
-        <v>1.056042551920834</v>
+        <v>1.025905607348345</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040061925362006</v>
+        <v>1.04996006693869</v>
       </c>
       <c r="J17">
-        <v>1.044095598847426</v>
+        <v>1.024950738473113</v>
       </c>
       <c r="K17">
-        <v>1.048382065036125</v>
+        <v>1.035019753718315</v>
       </c>
       <c r="L17">
-        <v>1.049600169104448</v>
+        <v>1.0289015840191</v>
       </c>
       <c r="M17">
-        <v>1.059339999997136</v>
+        <v>1.039474168211282</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038143059688851</v>
+        <v>0.9985007870378398</v>
       </c>
       <c r="D18">
-        <v>1.045210831766843</v>
+        <v>1.022197852805343</v>
       </c>
       <c r="E18">
-        <v>1.04645566903777</v>
+        <v>1.016047718021909</v>
       </c>
       <c r="F18">
-        <v>1.056234465130057</v>
+        <v>1.026838919083206</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040107014942994</v>
+        <v>1.050296475150835</v>
       </c>
       <c r="J18">
-        <v>1.044231601248224</v>
+        <v>1.02562055272438</v>
       </c>
       <c r="K18">
-        <v>1.048503397334681</v>
+        <v>1.035644115722404</v>
       </c>
       <c r="L18">
-        <v>1.049744041670714</v>
+        <v>1.029595079359848</v>
       </c>
       <c r="M18">
-        <v>1.059490277399844</v>
+        <v>1.040209919202032</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038216770811075</v>
+        <v>0.9988774370875317</v>
       </c>
       <c r="D19">
-        <v>1.045266541365894</v>
+        <v>1.022476929982611</v>
       </c>
       <c r="E19">
-        <v>1.046519083263847</v>
+        <v>1.016351388255801</v>
       </c>
       <c r="F19">
-        <v>1.056299913470039</v>
+        <v>1.027156059634288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040122357838288</v>
+        <v>1.050410498037121</v>
       </c>
       <c r="J19">
-        <v>1.044277971740097</v>
+        <v>1.025848044993942</v>
       </c>
       <c r="K19">
-        <v>1.048544757249542</v>
+        <v>1.03585611672787</v>
       </c>
       <c r="L19">
-        <v>1.049793100035745</v>
+        <v>1.02983065791525</v>
       </c>
       <c r="M19">
-        <v>1.059541515932724</v>
+        <v>1.040459827172534</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037887155491493</v>
+        <v>0.9971873248426871</v>
       </c>
       <c r="D20">
-        <v>1.045017404185098</v>
+        <v>1.021224853873051</v>
       </c>
       <c r="E20">
-        <v>1.046235537999811</v>
+        <v>1.014989294014624</v>
       </c>
       <c r="F20">
-        <v>1.056007256111972</v>
+        <v>1.025733408588726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040053616532782</v>
+        <v>1.049897861184307</v>
       </c>
       <c r="J20">
-        <v>1.044070580901474</v>
+        <v>1.024827102625305</v>
       </c>
       <c r="K20">
-        <v>1.048359741534415</v>
+        <v>1.034904481913865</v>
       </c>
       <c r="L20">
-        <v>1.049573705566322</v>
+        <v>1.028773597755133</v>
       </c>
       <c r="M20">
-        <v>1.059312356574717</v>
+        <v>1.03933837184195</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036816218524035</v>
+        <v>0.9915904716860442</v>
       </c>
       <c r="D21">
-        <v>1.044207603941107</v>
+        <v>1.017082556489574</v>
       </c>
       <c r="E21">
-        <v>1.045314730750653</v>
+        <v>1.01048858692658</v>
       </c>
       <c r="F21">
-        <v>1.055056560560341</v>
+        <v>1.021030199132314</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039827953141543</v>
+        <v>1.048182918454897</v>
       </c>
       <c r="J21">
-        <v>1.043396142986706</v>
+        <v>1.02144404866981</v>
       </c>
       <c r="K21">
-        <v>1.047757462056392</v>
+        <v>1.031747364190422</v>
       </c>
       <c r="L21">
-        <v>1.048860544610152</v>
+        <v>1.025273937599464</v>
       </c>
       <c r="M21">
-        <v>1.05856719208973</v>
+        <v>1.035623808773825</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036143400175186</v>
+        <v>0.9879893677301985</v>
       </c>
       <c r="D22">
-        <v>1.04369858759383</v>
+        <v>1.014420846412903</v>
       </c>
       <c r="E22">
-        <v>1.044736576650717</v>
+        <v>1.007600761953817</v>
       </c>
       <c r="F22">
-        <v>1.054459412577566</v>
+        <v>1.018010604820814</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039684403152176</v>
+        <v>1.047066476133473</v>
       </c>
       <c r="J22">
-        <v>1.04297195673072</v>
+        <v>1.019265923325788</v>
       </c>
       <c r="K22">
-        <v>1.047378196490866</v>
+        <v>1.029711936292811</v>
       </c>
       <c r="L22">
-        <v>1.048412243647202</v>
+        <v>1.023023135211333</v>
       </c>
       <c r="M22">
-        <v>1.058098572946278</v>
+        <v>1.033233517014568</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03650002406301</v>
+        <v>0.9899064251146359</v>
       </c>
       <c r="D23">
-        <v>1.043968413280168</v>
+        <v>1.015837455690734</v>
       </c>
       <c r="E23">
-        <v>1.045042991323697</v>
+        <v>1.009137325832038</v>
       </c>
       <c r="F23">
-        <v>1.054775915378547</v>
+        <v>1.019617452789942</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03976065944711</v>
+        <v>1.047662020853893</v>
       </c>
       <c r="J23">
-        <v>1.04319683884347</v>
+        <v>1.020425570149971</v>
       </c>
       <c r="K23">
-        <v>1.047579307751325</v>
+        <v>1.030795863913792</v>
       </c>
       <c r="L23">
-        <v>1.04864988739346</v>
+        <v>1.024221248176592</v>
       </c>
       <c r="M23">
-        <v>1.058347006308753</v>
+        <v>1.034505998217958</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03790511866833</v>
+        <v>0.9972798202692601</v>
       </c>
       <c r="D24">
-        <v>1.045030982807923</v>
+        <v>1.021293362934222</v>
       </c>
       <c r="E24">
-        <v>1.046250988805282</v>
+        <v>1.015063801862754</v>
       </c>
       <c r="F24">
-        <v>1.056023204569523</v>
+        <v>1.025811237975639</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040057371508308</v>
+        <v>1.049925981843708</v>
       </c>
       <c r="J24">
-        <v>1.0440818854851</v>
+        <v>1.024882984872079</v>
       </c>
       <c r="K24">
-        <v>1.048369828768587</v>
+        <v>1.034956584670782</v>
       </c>
       <c r="L24">
-        <v>1.049585663271538</v>
+        <v>1.028831445554629</v>
       </c>
       <c r="M24">
-        <v>1.05932484748649</v>
+        <v>1.039399750135657</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039537891707632</v>
+        <v>1.00550301347893</v>
       </c>
       <c r="D25">
-        <v>1.046264582120025</v>
+        <v>1.027390088401497</v>
       </c>
       <c r="E25">
-        <v>1.047656209838127</v>
+        <v>1.021704576566997</v>
       </c>
       <c r="F25">
-        <v>1.057473139335992</v>
+        <v>1.032743702352169</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040394409659634</v>
+        <v>1.052394249071615</v>
       </c>
       <c r="J25">
-        <v>1.045108286045295</v>
+        <v>1.029846588000662</v>
       </c>
       <c r="K25">
-        <v>1.049284583325093</v>
+        <v>1.03957758355186</v>
       </c>
       <c r="L25">
-        <v>1.050671938740635</v>
+        <v>1.033975047650626</v>
       </c>
       <c r="M25">
-        <v>1.060459078438381</v>
+        <v>1.044854122618538</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011817489373927</v>
+        <v>0.9978001507707662</v>
       </c>
       <c r="D2">
-        <v>1.03207858508228</v>
+        <v>1.018005290790403</v>
       </c>
       <c r="E2">
-        <v>1.026826708818055</v>
+        <v>1.004058753927942</v>
       </c>
       <c r="F2">
-        <v>1.038084423467973</v>
+        <v>1.023877317261614</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054242112447355</v>
+        <v>1.042655383782119</v>
       </c>
       <c r="J2">
-        <v>1.033650396389669</v>
+        <v>1.020046858625843</v>
       </c>
       <c r="K2">
-        <v>1.043108396758821</v>
+        <v>1.029219355357039</v>
       </c>
       <c r="L2">
-        <v>1.03792454021589</v>
+        <v>1.015461831995089</v>
       </c>
       <c r="M2">
-        <v>1.049037503862967</v>
+        <v>1.035013731199829</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.036283397567428</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031730777778054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016271659368335</v>
+        <v>1.003329083296005</v>
       </c>
       <c r="D3">
-        <v>1.035388553153455</v>
+        <v>1.021651526708125</v>
       </c>
       <c r="E3">
-        <v>1.030451969234584</v>
+        <v>1.00859667817758</v>
       </c>
       <c r="F3">
-        <v>1.041860633772853</v>
+        <v>1.027340000860034</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055517063820419</v>
+        <v>1.043845968474364</v>
       </c>
       <c r="J3">
-        <v>1.036328361381447</v>
+        <v>1.023729403733456</v>
       </c>
       <c r="K3">
-        <v>1.045587801066667</v>
+        <v>1.032014669226677</v>
       </c>
       <c r="L3">
-        <v>1.040709491490303</v>
+        <v>1.01912073199383</v>
       </c>
       <c r="M3">
-        <v>1.051984515248962</v>
+        <v>1.037634615520768</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.038357660987062</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033704660180537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019096672802832</v>
+        <v>1.006823271616007</v>
       </c>
       <c r="D4">
-        <v>1.037488752048611</v>
+        <v>1.023959106225673</v>
       </c>
       <c r="E4">
-        <v>1.032756570854307</v>
+        <v>1.011470168935985</v>
       </c>
       <c r="F4">
-        <v>1.044259435919463</v>
+        <v>1.029538306315438</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056312155453926</v>
+        <v>1.044587211561284</v>
       </c>
       <c r="J4">
-        <v>1.038024184775567</v>
+        <v>1.026054033323796</v>
       </c>
       <c r="K4">
-        <v>1.047154833101389</v>
+        <v>1.033776716215401</v>
       </c>
       <c r="L4">
-        <v>1.042475095719775</v>
+        <v>1.021432102503607</v>
       </c>
       <c r="M4">
-        <v>1.053851495885338</v>
+        <v>1.039292836325913</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039670034287538</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034951503651811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020271098632373</v>
+        <v>1.008279891358264</v>
       </c>
       <c r="D5">
-        <v>1.038362011859133</v>
+        <v>1.024924471142497</v>
       </c>
       <c r="E5">
-        <v>1.033715880679743</v>
+        <v>1.012670312494909</v>
       </c>
       <c r="F5">
-        <v>1.045257532528607</v>
+        <v>1.030455956682041</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056639396947459</v>
+        <v>1.044895751672535</v>
       </c>
       <c r="J5">
-        <v>1.038728508702363</v>
+        <v>1.027024514009256</v>
       </c>
       <c r="K5">
-        <v>1.047804917854819</v>
+        <v>1.034513806449576</v>
       </c>
       <c r="L5">
-        <v>1.043208887506254</v>
+        <v>1.022397358683892</v>
       </c>
       <c r="M5">
-        <v>1.054627086127901</v>
+        <v>1.0399844474572</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040217398549667</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035479911719154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020467528449015</v>
+        <v>1.008531636481835</v>
       </c>
       <c r="D6">
-        <v>1.038508077474523</v>
+        <v>1.025094644786862</v>
       </c>
       <c r="E6">
-        <v>1.033876402202465</v>
+        <v>1.012879006802693</v>
       </c>
       <c r="F6">
-        <v>1.045424519191556</v>
+        <v>1.030613413304434</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056693934808992</v>
+        <v>1.044951696060433</v>
       </c>
       <c r="J6">
-        <v>1.038846270723669</v>
+        <v>1.027194760944866</v>
       </c>
       <c r="K6">
-        <v>1.047913566693022</v>
+        <v>1.034645620895462</v>
       </c>
       <c r="L6">
-        <v>1.04333160503926</v>
+        <v>1.022566609323576</v>
       </c>
       <c r="M6">
-        <v>1.054756774123465</v>
+        <v>1.040103968248798</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.040311991273472</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03558191383727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01911241684031</v>
+        <v>1.006865209725452</v>
       </c>
       <c r="D7">
-        <v>1.037500458187926</v>
+        <v>1.023995760499917</v>
       </c>
       <c r="E7">
-        <v>1.032769426296115</v>
+        <v>1.011507998575875</v>
       </c>
       <c r="F7">
-        <v>1.044272812813558</v>
+        <v>1.029561290987005</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05631655545406</v>
+        <v>1.044603641812868</v>
       </c>
       <c r="J7">
-        <v>1.038033629446824</v>
+        <v>1.026088891199074</v>
       </c>
       <c r="K7">
-        <v>1.047163553427866</v>
+        <v>1.033810046070722</v>
       </c>
       <c r="L7">
-        <v>1.042484933623905</v>
+        <v>1.021466532818718</v>
       </c>
       <c r="M7">
-        <v>1.053861895506212</v>
+        <v>1.039312676636779</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039685736581271</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034995312899808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013334915577765</v>
+        <v>0.9997151818106335</v>
       </c>
       <c r="D8">
-        <v>1.033205990087067</v>
+        <v>1.019278708733197</v>
       </c>
       <c r="E8">
-        <v>1.028060604315299</v>
+        <v>1.005633718528903</v>
       </c>
       <c r="F8">
-        <v>1.039370062788842</v>
+        <v>1.025070279272662</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054679263157378</v>
+        <v>1.04307963936835</v>
       </c>
       <c r="J8">
-        <v>1.034563247051393</v>
+        <v>1.021331649264978</v>
       </c>
       <c r="K8">
-        <v>1.043954193858043</v>
+        <v>1.030203719432224</v>
       </c>
       <c r="L8">
-        <v>1.038873432401019</v>
+        <v>1.01673791448245</v>
       </c>
       <c r="M8">
-        <v>1.050041896164643</v>
+        <v>1.03592103710386</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037001473227603</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032449924443028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002694438702873</v>
+        <v>0.9863993998043107</v>
       </c>
       <c r="D9">
-        <v>1.025306526967202</v>
+        <v>1.010509333950964</v>
       </c>
       <c r="E9">
-        <v>1.019432725938854</v>
+        <v>0.99473617360119</v>
       </c>
       <c r="F9">
-        <v>1.030373062058254</v>
+        <v>1.016797102872534</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05155857915691</v>
+        <v>1.040141902803437</v>
       </c>
       <c r="J9">
-        <v>1.028152406868487</v>
+        <v>1.012441744088139</v>
       </c>
       <c r="K9">
-        <v>1.038001945491006</v>
+        <v>1.023434174993076</v>
       </c>
       <c r="L9">
-        <v>1.032218196631997</v>
+        <v>1.007915233959908</v>
       </c>
       <c r="M9">
-        <v>1.042991854714427</v>
+        <v>1.029623412837136</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032017283956639</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027660080651778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9952586488297543</v>
+        <v>0.9771536746922254</v>
       </c>
       <c r="D10">
-        <v>1.019796706492038</v>
+        <v>1.004468772242034</v>
       </c>
       <c r="E10">
-        <v>1.013436635271582</v>
+        <v>0.9872272968977583</v>
       </c>
       <c r="F10">
-        <v>1.024111299761678</v>
+        <v>1.011288433867356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049309820406454</v>
+        <v>1.038092446395441</v>
       </c>
       <c r="J10">
-        <v>1.023661653466452</v>
+        <v>1.006303999464089</v>
       </c>
       <c r="K10">
-        <v>1.033817493877229</v>
+        <v>1.01875780767877</v>
       </c>
       <c r="L10">
-        <v>1.027567452311024</v>
+        <v>1.001831060530504</v>
       </c>
       <c r="M10">
-        <v>1.038058448771934</v>
+        <v>1.02545682007068</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.028771709370727</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.024370535033188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9919497436053327</v>
+        <v>0.9741968495225316</v>
       </c>
       <c r="D11">
-        <v>1.01734826399126</v>
+        <v>1.002714676216329</v>
       </c>
       <c r="E11">
-        <v>1.010777039957347</v>
+        <v>0.9850036623527171</v>
       </c>
       <c r="F11">
-        <v>1.021331737423663</v>
+        <v>1.010907934194937</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048293764381882</v>
+        <v>1.037778711152815</v>
       </c>
       <c r="J11">
-        <v>1.021661300305739</v>
+        <v>1.004683911719536</v>
       </c>
       <c r="K11">
-        <v>1.031950269080952</v>
+        <v>1.017585578664269</v>
       </c>
       <c r="L11">
-        <v>1.025498539231688</v>
+        <v>1.000214039429715</v>
       </c>
       <c r="M11">
-        <v>1.035862277118383</v>
+        <v>1.025627033478689</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029347270248974</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.023575039268658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9907065409529185</v>
+        <v>0.973493788647155</v>
       </c>
       <c r="D12">
-        <v>1.016428944468817</v>
+        <v>1.002382758153628</v>
       </c>
       <c r="E12">
-        <v>1.009779159793166</v>
+        <v>0.9845662790227163</v>
       </c>
       <c r="F12">
-        <v>1.020288529778684</v>
+        <v>1.011475650555214</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047909775986307</v>
+        <v>1.037876290691331</v>
       </c>
       <c r="J12">
-        <v>1.020909491743229</v>
+        <v>1.004463900683145</v>
       </c>
       <c r="K12">
-        <v>1.031248018203198</v>
+        <v>1.017464450213018</v>
       </c>
       <c r="L12">
-        <v>1.024721374468285</v>
+        <v>0.9999952609270484</v>
       </c>
       <c r="M12">
-        <v>1.035037089419194</v>
+        <v>1.026386248867307</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030277094918767</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.023489395024933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9909738637818279</v>
+        <v>0.9745100507420902</v>
       </c>
       <c r="D13">
-        <v>1.016626595246186</v>
+        <v>1.003152431791418</v>
       </c>
       <c r="E13">
-        <v>1.009993668603388</v>
+        <v>0.9855008895777123</v>
       </c>
       <c r="F13">
-        <v>1.020512796600235</v>
+        <v>1.012843075731013</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047992444261727</v>
+        <v>1.03831653761316</v>
       </c>
       <c r="J13">
-        <v>1.021071161655358</v>
+        <v>1.005337057499508</v>
       </c>
       <c r="K13">
-        <v>1.03139905238371</v>
+        <v>1.018175652536219</v>
       </c>
       <c r="L13">
-        <v>1.024888478352686</v>
+        <v>1.00086625542348</v>
       </c>
       <c r="M13">
-        <v>1.035214528859722</v>
+        <v>1.027685068685188</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.031582713737567</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.023989722410664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9918472727068683</v>
+        <v>0.9759906463128413</v>
       </c>
       <c r="D14">
-        <v>1.017272476553455</v>
+        <v>1.004184816161485</v>
       </c>
       <c r="E14">
-        <v>1.010694761544798</v>
+        <v>0.9867683199272942</v>
       </c>
       <c r="F14">
-        <v>1.021245728016379</v>
+        <v>1.014145916742118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048262159337789</v>
+        <v>1.038775500687364</v>
       </c>
       <c r="J14">
-        <v>1.021599337267558</v>
+        <v>1.006434650502035</v>
       </c>
       <c r="K14">
-        <v>1.031892400095713</v>
+        <v>1.019045108034279</v>
       </c>
       <c r="L14">
-        <v>1.025434477983369</v>
+        <v>1.001961458864746</v>
       </c>
       <c r="M14">
-        <v>1.035794261784856</v>
+        <v>1.028822528825404</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.032656168298802</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.024605919206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,81 +1122,105 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9923835139164071</v>
+        <v>0.9767402969150809</v>
       </c>
       <c r="D15">
-        <v>1.017669105108365</v>
+        <v>1.004689844106536</v>
       </c>
       <c r="E15">
-        <v>1.011125389471515</v>
+        <v>0.9873900260712313</v>
       </c>
       <c r="F15">
-        <v>1.021695870325443</v>
+        <v>1.014673379830043</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048427460944459</v>
+        <v>1.038971005747396</v>
       </c>
       <c r="J15">
-        <v>1.021923586711366</v>
+        <v>1.006956608902136</v>
       </c>
       <c r="K15">
-        <v>1.032195206247199</v>
+        <v>1.01945241642181</v>
       </c>
       <c r="L15">
-        <v>1.02576972404482</v>
+        <v>1.002480456718105</v>
       </c>
       <c r="M15">
-        <v>1.036150191504342</v>
+        <v>1.029253362396388</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033034419694968</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.024899862053789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9954763100781215</v>
+        <v>0.9804621044390094</v>
       </c>
       <c r="D16">
-        <v>1.019957844102514</v>
+        <v>1.007097582644242</v>
       </c>
       <c r="E16">
-        <v>1.013611770536765</v>
+        <v>0.9903813426360841</v>
       </c>
       <c r="F16">
-        <v>1.024294290820626</v>
+        <v>1.016786508722076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049376342390788</v>
+        <v>1.039766527712342</v>
       </c>
       <c r="J16">
-        <v>1.023793200482957</v>
+        <v>1.009393586496115</v>
       </c>
       <c r="K16">
-        <v>1.033940218860603</v>
+        <v>1.021303554954246</v>
       </c>
       <c r="L16">
-        <v>1.027703564716839</v>
+        <v>1.004889268483045</v>
       </c>
       <c r="M16">
-        <v>1.038202902525351</v>
+        <v>1.030823343065252</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034236420144066</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026211918040013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9973919671641548</v>
+        <v>0.9825472900570169</v>
       </c>
       <c r="D17">
-        <v>1.021376429518184</v>
+        <v>1.008409648610303</v>
       </c>
       <c r="E17">
-        <v>1.01515414514695</v>
+        <v>0.9920194797077991</v>
       </c>
       <c r="F17">
-        <v>1.025905607348345</v>
+        <v>1.017724910168545</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04996006693869</v>
+        <v>1.040136752008846</v>
       </c>
       <c r="J17">
-        <v>1.024950738473113</v>
+        <v>1.010693074757845</v>
       </c>
       <c r="K17">
-        <v>1.035019753718315</v>
+        <v>1.022271815596767</v>
       </c>
       <c r="L17">
-        <v>1.0289015840191</v>
+        <v>1.006168898383634</v>
       </c>
       <c r="M17">
-        <v>1.039474168211282</v>
+        <v>1.031429134657697</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.034585575358991</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.026899146110015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9985007870378398</v>
+        <v>0.9833800866783466</v>
       </c>
       <c r="D18">
-        <v>1.022197852805343</v>
+        <v>1.008862068490721</v>
       </c>
       <c r="E18">
-        <v>1.016047718021909</v>
+        <v>0.9926038828655052</v>
       </c>
       <c r="F18">
-        <v>1.026838919083206</v>
+        <v>1.017620454556805</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050296475150835</v>
+        <v>1.040148506243256</v>
       </c>
       <c r="J18">
-        <v>1.02562055272438</v>
+        <v>1.011086019415806</v>
       </c>
       <c r="K18">
-        <v>1.035644115722404</v>
+        <v>1.022529564557691</v>
       </c>
       <c r="L18">
-        <v>1.029595079359848</v>
+        <v>1.006551515988504</v>
       </c>
       <c r="M18">
-        <v>1.040209919202032</v>
+        <v>1.031141812979505</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034119365969363</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027069603617787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9988774370875317</v>
+        <v>0.9830955335083932</v>
       </c>
       <c r="D19">
-        <v>1.022476929982611</v>
+        <v>1.008563924703868</v>
       </c>
       <c r="E19">
-        <v>1.016351388255801</v>
+        <v>0.9922557058603236</v>
       </c>
       <c r="F19">
-        <v>1.027156059634288</v>
+        <v>1.016530886187725</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050410498037121</v>
+        <v>1.039850834196303</v>
       </c>
       <c r="J19">
-        <v>1.025848044993942</v>
+        <v>1.010674279776071</v>
       </c>
       <c r="K19">
-        <v>1.03585611672787</v>
+        <v>1.022172693680132</v>
       </c>
       <c r="L19">
-        <v>1.02983065791525</v>
+        <v>1.006144199122521</v>
       </c>
       <c r="M19">
-        <v>1.040459827172534</v>
+        <v>1.030007201032298</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.032894355358584</v>
+      </c>
+      <c r="Q19">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R19">
+        <v>1.026823755710237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9971873248426871</v>
+        <v>0.9796283307983591</v>
       </c>
       <c r="D20">
-        <v>1.021224853873051</v>
+        <v>1.006107921836216</v>
       </c>
       <c r="E20">
-        <v>1.014989294014624</v>
+        <v>0.9892455482148562</v>
       </c>
       <c r="F20">
-        <v>1.025733408588726</v>
+        <v>1.012758746310878</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049897861184307</v>
+        <v>1.03866711513316</v>
       </c>
       <c r="J20">
-        <v>1.024827102625305</v>
+        <v>1.007967779302307</v>
       </c>
       <c r="K20">
-        <v>1.034904481913865</v>
+        <v>1.020044214376823</v>
       </c>
       <c r="L20">
-        <v>1.028773597755133</v>
+        <v>1.003480174920588</v>
       </c>
       <c r="M20">
-        <v>1.03933837184195</v>
+        <v>1.026580898195709</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.029650635807496</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.025322791149822</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9915904716860442</v>
+        <v>0.9724004955529144</v>
       </c>
       <c r="D21">
-        <v>1.017082556489574</v>
+        <v>1.001361785737169</v>
       </c>
       <c r="E21">
-        <v>1.01048858692658</v>
+        <v>0.9833579860384861</v>
       </c>
       <c r="F21">
-        <v>1.021030199132314</v>
+        <v>1.008209438508162</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048182918454897</v>
+        <v>1.036977703026078</v>
       </c>
       <c r="J21">
-        <v>1.02144404866981</v>
+        <v>1.003099244308165</v>
       </c>
       <c r="K21">
-        <v>1.031747364190422</v>
+        <v>1.016317404517813</v>
       </c>
       <c r="L21">
-        <v>1.025273937599464</v>
+        <v>0.9986616578612768</v>
       </c>
       <c r="M21">
-        <v>1.035623808773825</v>
+        <v>1.023036932005091</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.026804444110747</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.022691026910981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9879893677301985</v>
+        <v>0.9677693265549462</v>
       </c>
       <c r="D22">
-        <v>1.014420846412903</v>
+        <v>0.9983285556534136</v>
       </c>
       <c r="E22">
-        <v>1.007600761953817</v>
+        <v>0.9796004341471254</v>
       </c>
       <c r="F22">
-        <v>1.018010604820814</v>
+        <v>1.005401586544584</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047066476133473</v>
+        <v>1.035897460580397</v>
       </c>
       <c r="J22">
-        <v>1.019265923325788</v>
+        <v>0.9999923593026323</v>
       </c>
       <c r="K22">
-        <v>1.029711936292811</v>
+        <v>1.013933197061209</v>
       </c>
       <c r="L22">
-        <v>1.023023135211333</v>
+        <v>0.9955871394471457</v>
       </c>
       <c r="M22">
-        <v>1.033233517014568</v>
+        <v>1.020866791083157</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.025086887451147</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.020991514473108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9899064251146359</v>
+        <v>0.9702135185721203</v>
       </c>
       <c r="D23">
-        <v>1.015837455690734</v>
+        <v>0.9999199794583378</v>
       </c>
       <c r="E23">
-        <v>1.009137325832038</v>
+        <v>0.981578555122418</v>
       </c>
       <c r="F23">
-        <v>1.019617452789942</v>
+        <v>1.006884780289243</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047662020853893</v>
+        <v>1.036461115650144</v>
       </c>
       <c r="J23">
-        <v>1.020425570149971</v>
+        <v>1.001625360412348</v>
       </c>
       <c r="K23">
-        <v>1.030795863913792</v>
+        <v>1.015180173482816</v>
       </c>
       <c r="L23">
-        <v>1.024221248176592</v>
+        <v>0.9972024888993998</v>
       </c>
       <c r="M23">
-        <v>1.034505998217958</v>
+        <v>1.022011390438521</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.025992780424811</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.021863403124705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9972798202692601</v>
+        <v>0.9795985649215355</v>
       </c>
       <c r="D24">
-        <v>1.021293362934222</v>
+        <v>1.006060075102484</v>
       </c>
       <c r="E24">
-        <v>1.015063801862754</v>
+        <v>0.9892002248835482</v>
       </c>
       <c r="F24">
-        <v>1.025811237975639</v>
+        <v>1.012609478660417</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049925981843708</v>
+        <v>1.038616394744291</v>
       </c>
       <c r="J24">
-        <v>1.024882984872079</v>
+        <v>1.007905217453503</v>
       </c>
       <c r="K24">
-        <v>1.034956584670782</v>
+        <v>1.019981598299015</v>
       </c>
       <c r="L24">
-        <v>1.028831445554629</v>
+        <v>1.00341968876518</v>
       </c>
       <c r="M24">
-        <v>1.039399750135657</v>
+        <v>1.026418718035618</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.029480947955716</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.025250718840492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00550301347893</v>
+        <v>0.9899665272948276</v>
       </c>
       <c r="D25">
-        <v>1.027390088401497</v>
+        <v>1.012868850669589</v>
       </c>
       <c r="E25">
-        <v>1.021704576566997</v>
+        <v>0.9976554638768927</v>
       </c>
       <c r="F25">
-        <v>1.032743702352169</v>
+        <v>1.01899737871114</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052394249071615</v>
+        <v>1.040951028135347</v>
       </c>
       <c r="J25">
-        <v>1.029846588000662</v>
+        <v>1.014836341002209</v>
       </c>
       <c r="K25">
-        <v>1.03957758355186</v>
+        <v>1.025270625728848</v>
       </c>
       <c r="L25">
-        <v>1.033975047650626</v>
+        <v>1.010290285106576</v>
       </c>
       <c r="M25">
-        <v>1.044854122618538</v>
+        <v>1.031307772853842</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.033350356641304</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028987518021533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9978001507707662</v>
+        <v>0.9977774129922268</v>
       </c>
       <c r="D2">
-        <v>1.018005290790403</v>
+        <v>1.017926541309713</v>
       </c>
       <c r="E2">
-        <v>1.004058753927942</v>
+        <v>1.004148121734671</v>
       </c>
       <c r="F2">
-        <v>1.023877317261614</v>
+        <v>1.023907561183539</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042655383782119</v>
+        <v>1.04273550701149</v>
       </c>
       <c r="J2">
-        <v>1.020046858625843</v>
+        <v>1.02002480508611</v>
       </c>
       <c r="K2">
-        <v>1.029219355357039</v>
+        <v>1.029141654888297</v>
       </c>
       <c r="L2">
-        <v>1.015461831995089</v>
+        <v>1.015549967560642</v>
       </c>
       <c r="M2">
-        <v>1.035013731199829</v>
+        <v>1.03504357807138</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036283397567428</v>
+        <v>1.03630701950395</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031730777778054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031684689798582</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019600657039002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003329083296005</v>
+        <v>1.002956430114676</v>
       </c>
       <c r="D3">
-        <v>1.021651526708125</v>
+        <v>1.021192608433466</v>
       </c>
       <c r="E3">
-        <v>1.00859667817758</v>
+        <v>1.008366548813185</v>
       </c>
       <c r="F3">
-        <v>1.027340000860034</v>
+        <v>1.02721043908119</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043845968474364</v>
+        <v>1.04375274113358</v>
       </c>
       <c r="J3">
-        <v>1.023729403733456</v>
+        <v>1.023366823048744</v>
       </c>
       <c r="K3">
-        <v>1.032014669226677</v>
+        <v>1.031561320787572</v>
       </c>
       <c r="L3">
-        <v>1.01912073199383</v>
+        <v>1.018893485741318</v>
       </c>
       <c r="M3">
-        <v>1.037634615520768</v>
+        <v>1.037506604068425</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038357660987062</v>
+        <v>1.038256348195977</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033704660180537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033392664302195</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020169783710305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006823271616007</v>
+        <v>1.006233718044109</v>
       </c>
       <c r="D4">
-        <v>1.023959106225673</v>
+        <v>1.023262874979197</v>
       </c>
       <c r="E4">
-        <v>1.011470168935985</v>
+        <v>1.01104188230579</v>
       </c>
       <c r="F4">
-        <v>1.029538306315438</v>
+        <v>1.029309792303222</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044587211561284</v>
+        <v>1.044385844765236</v>
       </c>
       <c r="J4">
-        <v>1.026054033323796</v>
+        <v>1.025479297761803</v>
       </c>
       <c r="K4">
-        <v>1.033776716215401</v>
+        <v>1.033088416297434</v>
       </c>
       <c r="L4">
-        <v>1.021432102503607</v>
+        <v>1.02100884345152</v>
       </c>
       <c r="M4">
-        <v>1.039292836325913</v>
+        <v>1.039066889414527</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039670034287538</v>
+        <v>1.039491212228007</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034951503651811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034473450641125</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02052617516981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008279891358264</v>
+        <v>1.007600674363939</v>
       </c>
       <c r="D5">
-        <v>1.024924471142497</v>
+        <v>1.024129836997206</v>
       </c>
       <c r="E5">
-        <v>1.012670312494909</v>
+        <v>1.012160021058537</v>
       </c>
       <c r="F5">
-        <v>1.030455956682041</v>
+        <v>1.030186545559062</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044895751672535</v>
+        <v>1.044649460875037</v>
       </c>
       <c r="J5">
-        <v>1.027024514009256</v>
+        <v>1.026361840794782</v>
       </c>
       <c r="K5">
-        <v>1.034513806449576</v>
+        <v>1.033727979411908</v>
       </c>
       <c r="L5">
-        <v>1.022397358683892</v>
+        <v>1.021892891056516</v>
       </c>
       <c r="M5">
-        <v>1.0399844474572</v>
+        <v>1.039717981181987</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040217398549667</v>
+        <v>1.040006508245265</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035479911719154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034933608562087</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020675547030026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008531636481835</v>
+        <v>1.007836729045878</v>
       </c>
       <c r="D6">
-        <v>1.025094644786862</v>
+        <v>1.024282854765328</v>
       </c>
       <c r="E6">
-        <v>1.012879006802693</v>
+        <v>1.012354271626409</v>
       </c>
       <c r="F6">
-        <v>1.030613413304434</v>
+        <v>1.03033682242348</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044951696060433</v>
+        <v>1.044697446242805</v>
       </c>
       <c r="J6">
-        <v>1.027194760944866</v>
+        <v>1.026516689222946</v>
       </c>
       <c r="K6">
-        <v>1.034645620895462</v>
+        <v>1.033842786109727</v>
       </c>
       <c r="L6">
-        <v>1.022566609323576</v>
+        <v>1.022047834135192</v>
       </c>
       <c r="M6">
-        <v>1.040103968248798</v>
+        <v>1.03983038666101</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040311991273472</v>
+        <v>1.040095469700805</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03558191383727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035024455676111</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020703283141249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006865209725452</v>
+        <v>1.006272359928318</v>
       </c>
       <c r="D7">
-        <v>1.023995760499917</v>
+        <v>1.023296152378484</v>
       </c>
       <c r="E7">
-        <v>1.011507998575875</v>
+        <v>1.01107643871591</v>
       </c>
       <c r="F7">
-        <v>1.029561290987005</v>
+        <v>1.029331204331615</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044603641812868</v>
+        <v>1.044400377166222</v>
       </c>
       <c r="J7">
-        <v>1.026088891199074</v>
+        <v>1.025510935205235</v>
       </c>
       <c r="K7">
-        <v>1.033810046070722</v>
+        <v>1.033118404413231</v>
       </c>
       <c r="L7">
-        <v>1.021466532818718</v>
+        <v>1.021040036814315</v>
       </c>
       <c r="M7">
-        <v>1.039312676636779</v>
+        <v>1.03908517374991</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039685736581271</v>
+        <v>1.039505683073678</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034995312899808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034516901272798</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02053580135929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9997151818106335</v>
+        <v>0.9995692732132365</v>
       </c>
       <c r="D8">
-        <v>1.019278708733197</v>
+        <v>1.019066831898976</v>
       </c>
       <c r="E8">
-        <v>1.005633718528903</v>
+        <v>1.005610293084851</v>
       </c>
       <c r="F8">
-        <v>1.025070279272662</v>
+        <v>1.025044156050115</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04307963936835</v>
+        <v>1.04309855101815</v>
       </c>
       <c r="J8">
-        <v>1.021331649264978</v>
+        <v>1.021189977320531</v>
       </c>
       <c r="K8">
-        <v>1.030203719432224</v>
+        <v>1.029994579059668</v>
       </c>
       <c r="L8">
-        <v>1.01673791448245</v>
+        <v>1.016714801910429</v>
       </c>
       <c r="M8">
-        <v>1.03592103710386</v>
+        <v>1.035895246450186</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037001473227603</v>
+        <v>1.036981061554434</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032449924443028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032313161801159</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.01980522115297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9863993998043107</v>
+        <v>0.9871245560616523</v>
       </c>
       <c r="D9">
-        <v>1.010509333950964</v>
+        <v>1.011232165307698</v>
       </c>
       <c r="E9">
-        <v>0.99473617360119</v>
+        <v>0.9955070035080289</v>
       </c>
       <c r="F9">
-        <v>1.016797102872534</v>
+        <v>1.017169328050023</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040141902803437</v>
+        <v>1.040587627954665</v>
       </c>
       <c r="J9">
-        <v>1.012441744088139</v>
+        <v>1.013140318128575</v>
       </c>
       <c r="K9">
-        <v>1.023434174993076</v>
+        <v>1.024145599598105</v>
       </c>
       <c r="L9">
-        <v>1.007915233959908</v>
+        <v>1.008673399497395</v>
       </c>
       <c r="M9">
-        <v>1.029623412837136</v>
+        <v>1.02998985394508</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032017283956639</v>
+        <v>1.032307300930784</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027660080651778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028173990515719</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018410728215669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9771536746922254</v>
+        <v>0.9785044119954287</v>
       </c>
       <c r="D10">
-        <v>1.004468772242034</v>
+        <v>1.00585137591242</v>
       </c>
       <c r="E10">
-        <v>0.9872272968977583</v>
+        <v>0.9885642313184738</v>
       </c>
       <c r="F10">
-        <v>1.011288433867356</v>
+        <v>1.011945978495391</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.038092446395441</v>
+        <v>1.038836855833602</v>
       </c>
       <c r="J10">
-        <v>1.006303999464089</v>
+        <v>1.007597621500868</v>
       </c>
       <c r="K10">
-        <v>1.01875780767877</v>
+        <v>1.020115779586332</v>
       </c>
       <c r="L10">
-        <v>1.001831060530504</v>
+        <v>1.003143078151767</v>
       </c>
       <c r="M10">
-        <v>1.02545682007068</v>
+        <v>1.026102843179368</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.028771709370727</v>
+        <v>1.02928296904042</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.024370535033188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025343313376913</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017446016687918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9741968495225316</v>
+        <v>0.9756771254918958</v>
       </c>
       <c r="D11">
-        <v>1.002714676216329</v>
+        <v>1.004240180223021</v>
       </c>
       <c r="E11">
-        <v>0.9850036623527171</v>
+        <v>0.9864394073372595</v>
       </c>
       <c r="F11">
-        <v>1.010907934194937</v>
+        <v>1.011616281503536</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.037778711152815</v>
+        <v>1.038566809814386</v>
       </c>
       <c r="J11">
-        <v>1.004683911719536</v>
+        <v>1.006097978801122</v>
       </c>
       <c r="K11">
-        <v>1.017585578664269</v>
+        <v>1.019082573527218</v>
       </c>
       <c r="L11">
-        <v>1.000214039429715</v>
+        <v>1.001621669167068</v>
       </c>
       <c r="M11">
-        <v>1.025627033478689</v>
+        <v>1.026322407026729</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029347270248974</v>
+        <v>1.029897302759806</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.023575039268658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.024649327878666</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017277610321273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.973493788647155</v>
+        <v>0.9749630164453084</v>
       </c>
       <c r="D12">
-        <v>1.002382758153628</v>
+        <v>1.003902763709305</v>
       </c>
       <c r="E12">
-        <v>0.9845662790227163</v>
+        <v>0.9859773800154886</v>
       </c>
       <c r="F12">
-        <v>1.011475650555214</v>
+        <v>1.012172539223405</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.037876290691331</v>
+        <v>1.038645238603595</v>
       </c>
       <c r="J12">
-        <v>1.004463900683145</v>
+        <v>1.005866127919665</v>
       </c>
       <c r="K12">
-        <v>1.017464450213018</v>
+        <v>1.018955572953828</v>
       </c>
       <c r="L12">
-        <v>0.9999952609270484</v>
+        <v>1.001378254233304</v>
       </c>
       <c r="M12">
-        <v>1.026386248867307</v>
+        <v>1.02707019013981</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030277094918767</v>
+        <v>1.03081789827123</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.023489395024933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02455953391628</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017307794396425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9745100507420902</v>
+        <v>0.9758559363895024</v>
       </c>
       <c r="D13">
-        <v>1.003152431791418</v>
+        <v>1.004549339400959</v>
       </c>
       <c r="E13">
-        <v>0.9855008895777123</v>
+        <v>0.986787740156342</v>
       </c>
       <c r="F13">
-        <v>1.012843075731013</v>
+        <v>1.013478794791409</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.03831653761316</v>
+        <v>1.039015202170896</v>
       </c>
       <c r="J13">
-        <v>1.005337057499508</v>
+        <v>1.006621964938807</v>
       </c>
       <c r="K13">
-        <v>1.018175652536219</v>
+        <v>1.019546154306193</v>
       </c>
       <c r="L13">
-        <v>1.00086625542348</v>
+        <v>1.00212761915927</v>
       </c>
       <c r="M13">
-        <v>1.027685068685188</v>
+        <v>1.028309056823452</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031582713737567</v>
+        <v>1.032075985658757</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.023989722410664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.024974324073573</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017503889796721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9759906463128413</v>
+        <v>0.9772012259161882</v>
       </c>
       <c r="D14">
-        <v>1.004184816161485</v>
+        <v>1.0054439022593</v>
       </c>
       <c r="E14">
-        <v>0.9867683199272942</v>
+        <v>0.9879248556766801</v>
       </c>
       <c r="F14">
-        <v>1.014145916742118</v>
+        <v>1.014717343193268</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038775500687364</v>
+        <v>1.039402679267412</v>
       </c>
       <c r="J14">
-        <v>1.006434650502035</v>
+        <v>1.007591269528748</v>
       </c>
       <c r="K14">
-        <v>1.019045108034279</v>
+        <v>1.020280714788729</v>
       </c>
       <c r="L14">
-        <v>1.001961458864746</v>
+        <v>1.003095414898991</v>
       </c>
       <c r="M14">
-        <v>1.028822528825404</v>
+        <v>1.029383560637879</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032656168298802</v>
+        <v>1.033099612049817</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.024605919206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.025495268808925</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017715303889054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9767402969150809</v>
+        <v>0.9778924098333961</v>
       </c>
       <c r="D15">
-        <v>1.004689844106536</v>
+        <v>1.00588849669355</v>
       </c>
       <c r="E15">
-        <v>0.9873900260712313</v>
+        <v>0.9884920709831966</v>
       </c>
       <c r="F15">
-        <v>1.014673379830043</v>
+        <v>1.015217800189643</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038971005747396</v>
+        <v>1.039568943585811</v>
       </c>
       <c r="J15">
-        <v>1.006956608902136</v>
+        <v>1.008057860931472</v>
       </c>
       <c r="K15">
-        <v>1.01945241642181</v>
+        <v>1.020628897190267</v>
       </c>
       <c r="L15">
-        <v>1.002480456718105</v>
+        <v>1.003561167729874</v>
       </c>
       <c r="M15">
-        <v>1.029253362396388</v>
+        <v>1.029787960021348</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033034419694968</v>
+        <v>1.033456958535141</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.024899862053789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.0257479705152</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01780713623866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9804621044390094</v>
+        <v>0.9813725163191501</v>
       </c>
       <c r="D16">
-        <v>1.007097582644242</v>
+        <v>1.008040732175126</v>
       </c>
       <c r="E16">
-        <v>0.9903813426360841</v>
+        <v>0.9912684258993439</v>
       </c>
       <c r="F16">
-        <v>1.016786508722076</v>
+        <v>1.017223210463431</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039766527712342</v>
+        <v>1.040252725828778</v>
       </c>
       <c r="J16">
-        <v>1.009393586496115</v>
+        <v>1.010265969059847</v>
       </c>
       <c r="K16">
-        <v>1.021303554954246</v>
+        <v>1.022230054877139</v>
       </c>
       <c r="L16">
-        <v>1.004889268483045</v>
+        <v>1.005759994507423</v>
       </c>
       <c r="M16">
-        <v>1.030823343065252</v>
+        <v>1.031252519501255</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034236420144066</v>
+        <v>1.03457564538212</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026211918040013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.026883560240081</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018183108198585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9825472900570169</v>
+        <v>0.9833430170285752</v>
       </c>
       <c r="D17">
-        <v>1.008409648610303</v>
+        <v>1.009228636659361</v>
       </c>
       <c r="E17">
-        <v>0.9920194797077991</v>
+        <v>0.9928095105162055</v>
       </c>
       <c r="F17">
-        <v>1.017724910168545</v>
+        <v>1.018112312415836</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040136752008846</v>
+        <v>1.04057427461763</v>
       </c>
       <c r="J17">
-        <v>1.010693074757845</v>
+        <v>1.011456697869448</v>
       </c>
       <c r="K17">
-        <v>1.022271815596767</v>
+        <v>1.023076766451249</v>
       </c>
       <c r="L17">
-        <v>1.006168898383634</v>
+        <v>1.006944800724194</v>
       </c>
       <c r="M17">
-        <v>1.031429134657697</v>
+        <v>1.031810049086514</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034585575358991</v>
+        <v>1.034886684103805</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026899146110015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027485086149053</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018361085376943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9833800866783466</v>
+        <v>0.9841625544252769</v>
       </c>
       <c r="D18">
-        <v>1.008862068490721</v>
+        <v>1.009662053485381</v>
       </c>
       <c r="E18">
-        <v>0.9926038828655052</v>
+        <v>0.9933925379184179</v>
       </c>
       <c r="F18">
-        <v>1.017620454556805</v>
+        <v>1.018005785622845</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040148506243256</v>
+        <v>1.040589474653768</v>
       </c>
       <c r="J18">
-        <v>1.011086019415806</v>
+        <v>1.01183752827125</v>
       </c>
       <c r="K18">
-        <v>1.022529564557691</v>
+        <v>1.023316065749186</v>
       </c>
       <c r="L18">
-        <v>1.006551515988504</v>
+        <v>1.007326307869291</v>
       </c>
       <c r="M18">
-        <v>1.031141812979505</v>
+        <v>1.031520788921394</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034119365969363</v>
+        <v>1.034419005429141</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027069603617787</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027641363525291</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018373163895553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9830955335083932</v>
+        <v>0.9839509133552196</v>
       </c>
       <c r="D19">
-        <v>1.008563924703868</v>
+        <v>1.0094351431093</v>
       </c>
       <c r="E19">
-        <v>0.9922557058603236</v>
+        <v>0.9931232796666271</v>
       </c>
       <c r="F19">
-        <v>1.016530886187725</v>
+        <v>1.016954202553026</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039850834196303</v>
+        <v>1.04033880005669</v>
       </c>
       <c r="J19">
-        <v>1.010674279776071</v>
+        <v>1.011495990721111</v>
       </c>
       <c r="K19">
-        <v>1.022172693680132</v>
+        <v>1.023029296469633</v>
       </c>
       <c r="L19">
-        <v>1.006144199122521</v>
+        <v>1.006996592335072</v>
       </c>
       <c r="M19">
-        <v>1.030007201032298</v>
+        <v>1.030423554265038</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.032894355358584</v>
+        <v>1.0332236564101</v>
       </c>
       <c r="Q19">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026823755710237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.02744570736958</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018247355718443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9796283307983591</v>
+        <v>0.9808058182772502</v>
       </c>
       <c r="D20">
-        <v>1.006107921836216</v>
+        <v>1.007309610716361</v>
       </c>
       <c r="E20">
-        <v>0.9892455482148562</v>
+        <v>0.9904248797092309</v>
       </c>
       <c r="F20">
-        <v>1.012758746310878</v>
+        <v>1.01333702583734</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.03866711513316</v>
+        <v>1.039328275393407</v>
       </c>
       <c r="J20">
-        <v>1.007967779302307</v>
+        <v>1.009097234435931</v>
       </c>
       <c r="K20">
-        <v>1.020044214376823</v>
+        <v>1.021225135728394</v>
       </c>
       <c r="L20">
-        <v>1.003480174920588</v>
+        <v>1.004638211867275</v>
       </c>
       <c r="M20">
-        <v>1.026580898195709</v>
+        <v>1.02714934476493</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.029650635807496</v>
+        <v>1.030100507127089</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.025322791149822</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.026174459269363</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017720388799845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9724004955529144</v>
+        <v>0.9740932257132181</v>
       </c>
       <c r="D21">
-        <v>1.001361785737169</v>
+        <v>1.003099956433975</v>
       </c>
       <c r="E21">
-        <v>0.9833579860384861</v>
+        <v>0.9850056448127578</v>
       </c>
       <c r="F21">
-        <v>1.008209438508162</v>
+        <v>1.009024108328527</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.036977703026078</v>
+        <v>1.037885444971463</v>
       </c>
       <c r="J21">
-        <v>1.003099244308165</v>
+        <v>1.004715501724358</v>
       </c>
       <c r="K21">
-        <v>1.016317404517813</v>
+        <v>1.018022836231648</v>
       </c>
       <c r="L21">
-        <v>0.9986616578612768</v>
+        <v>1.00027676915505</v>
       </c>
       <c r="M21">
-        <v>1.023036932005091</v>
+        <v>1.023836509586539</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026804444110747</v>
+        <v>1.027437268195205</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.022691026910981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.023913912542192</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016932868944161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9677693265549462</v>
+        <v>0.9697977981034408</v>
       </c>
       <c r="D22">
-        <v>0.9983285556534136</v>
+        <v>1.000412716942567</v>
       </c>
       <c r="E22">
-        <v>0.9796004341471254</v>
+        <v>0.9815517702092538</v>
       </c>
       <c r="F22">
-        <v>1.005401586544584</v>
+        <v>1.00636986939174</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.035897460580397</v>
+        <v>1.036963505446929</v>
       </c>
       <c r="J22">
-        <v>0.9999923593026323</v>
+        <v>1.001923310821459</v>
       </c>
       <c r="K22">
-        <v>1.013933197061209</v>
+        <v>1.015976002261126</v>
       </c>
       <c r="L22">
-        <v>0.9955871394471457</v>
+        <v>0.9974977680777782</v>
       </c>
       <c r="M22">
-        <v>1.020866791083157</v>
+        <v>1.021816185342189</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.025086887451147</v>
+        <v>1.025838285468115</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.020991514473108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.022451672732148</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01642812098285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9702135185721203</v>
+        <v>0.9720651582824175</v>
       </c>
       <c r="D23">
-        <v>0.9999199794583378</v>
+        <v>1.001822022376093</v>
       </c>
       <c r="E23">
-        <v>0.981578555122418</v>
+        <v>0.9833704226111872</v>
       </c>
       <c r="F23">
-        <v>1.006884780289243</v>
+        <v>1.007772262791436</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036461115650144</v>
+        <v>1.037444342642867</v>
       </c>
       <c r="J23">
-        <v>1.001625360412348</v>
+        <v>1.003390847748103</v>
       </c>
       <c r="K23">
-        <v>1.015180173482816</v>
+        <v>1.017045494032606</v>
       </c>
       <c r="L23">
-        <v>0.9972024888993998</v>
+        <v>0.9989580330897898</v>
       </c>
       <c r="M23">
-        <v>1.022011390438521</v>
+        <v>1.022882024548673</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025992780424811</v>
+        <v>1.026681842845348</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.021863403124705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.023197118649552</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016689498075313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9795985649215355</v>
+        <v>0.9807864729663813</v>
       </c>
       <c r="D24">
-        <v>1.006060075102484</v>
+        <v>1.00727163054848</v>
       </c>
       <c r="E24">
-        <v>0.9892002248835482</v>
+        <v>0.9903910699939829</v>
       </c>
       <c r="F24">
-        <v>1.012609478660417</v>
+        <v>1.013193329856462</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.038616394744291</v>
+        <v>1.039284553265115</v>
       </c>
       <c r="J24">
-        <v>1.007905217453503</v>
+        <v>1.009044733070277</v>
       </c>
       <c r="K24">
-        <v>1.019981598299015</v>
+        <v>1.021172240342134</v>
       </c>
       <c r="L24">
-        <v>1.00341968876518</v>
+        <v>1.004589057011938</v>
       </c>
       <c r="M24">
-        <v>1.026418718035618</v>
+        <v>1.026992650584434</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029480947955716</v>
+        <v>1.029935184024042</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.025250718840492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.026106597198779</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017696308847985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9899665272948276</v>
+        <v>0.9904518766085613</v>
       </c>
       <c r="D25">
-        <v>1.012868850669589</v>
+        <v>1.013336801697131</v>
       </c>
       <c r="E25">
-        <v>0.9976554638768927</v>
+        <v>0.9982074088899067</v>
       </c>
       <c r="F25">
-        <v>1.01899737871114</v>
+        <v>1.019259748458551</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.040951028135347</v>
+        <v>1.041279649360053</v>
       </c>
       <c r="J25">
-        <v>1.014836341002209</v>
+        <v>1.015304901924864</v>
       </c>
       <c r="K25">
-        <v>1.025270625728848</v>
+        <v>1.025731549651643</v>
       </c>
       <c r="L25">
-        <v>1.010290285106576</v>
+        <v>1.010833616410095</v>
       </c>
       <c r="M25">
-        <v>1.031307772853842</v>
+        <v>1.031566261641545</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033350356641304</v>
+        <v>1.033554935211768</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028987518021533</v>
+        <v>1.02932709336664</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018795777087383</v>
       </c>
     </row>
   </sheetData>
